--- a/doc/EBMlog.xlsx
+++ b/doc/EBMlog.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9345" activeTab="1"/>
+    <workbookView windowWidth="19875" windowHeight="7515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="刘士卿" sheetId="1" r:id="rId1"/>
     <sheet name="牛文涛" sheetId="2" r:id="rId2"/>
     <sheet name="袁嘉敏" sheetId="3" r:id="rId3"/>
-    <sheet name="彭瑶瑶" sheetId="4" r:id="rId4"/>
+    <sheet name="李凤琴" sheetId="4" r:id="rId4"/>
+    <sheet name="燕广北" sheetId="5" r:id="rId5"/>
+    <sheet name="彭瑶瑶" sheetId="6" r:id="rId6"/>
+    <sheet name="张国豪" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="271">
   <si>
     <t>提交时间</t>
   </si>
@@ -42,7 +45,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4.</t>
     </r>
@@ -51,7 +54,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -60,7 +63,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -80,7 +83,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4.</t>
     </r>
@@ -89,7 +92,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -98,7 +101,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -118,7 +121,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4.</t>
     </r>
@@ -127,7 +130,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>9</t>
     </r>
@@ -136,7 +139,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -156,7 +159,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4.1</t>
     </r>
@@ -165,7 +168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -174,7 +177,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -194,7 +197,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4.1</t>
     </r>
@@ -203,7 +206,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -212,7 +215,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -232,7 +235,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4.17</t>
     </r>
@@ -241,7 +244,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -261,7 +264,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4.19</t>
     </r>
@@ -270,7 +273,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -290,7 +293,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4.23</t>
     </r>
@@ -299,7 +302,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -313,7 +316,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4.24</t>
     </r>
@@ -322,7 +325,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -336,7 +339,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4.25</t>
     </r>
@@ -345,7 +348,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -359,7 +362,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4.26</t>
     </r>
@@ -368,7 +371,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -382,7 +385,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4.29</t>
     </r>
@@ -391,7 +394,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -405,7 +408,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4.30</t>
     </r>
@@ -414,7 +417,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -428,7 +431,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -437,7 +440,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>.1</t>
     </r>
@@ -446,7 +449,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -460,7 +463,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -469,7 +472,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>.2</t>
     </r>
@@ -478,7 +481,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -498,7 +501,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -507,7 +510,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>.6</t>
     </r>
@@ -516,7 +519,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -530,7 +533,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -539,7 +542,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>.7</t>
     </r>
@@ -548,7 +551,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -568,7 +571,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -577,7 +580,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>.9</t>
     </r>
@@ -586,7 +589,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -606,7 +609,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -615,7 +618,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>.13</t>
     </r>
@@ -624,7 +627,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -638,7 +641,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -647,7 +650,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>.14</t>
     </r>
@@ -656,7 +659,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -665,6 +668,66 @@
     <t>链接数据库并进行操作</t>
   </si>
   <si>
+    <t>5.17-13.00-15.00</t>
+  </si>
+  <si>
+    <t>调试数据库的错误</t>
+  </si>
+  <si>
+    <t>5.18-14.00-16.00</t>
+  </si>
+  <si>
+    <t>重新看了事务</t>
+  </si>
+  <si>
+    <t>5.19-12.00-14.00</t>
+  </si>
+  <si>
+    <t>调试了maven测试错误</t>
+  </si>
+  <si>
+    <t>5.20-15.30-17.30</t>
+  </si>
+  <si>
+    <t>看了单元测试</t>
+  </si>
+  <si>
+    <t>5.21-16.00-18.00</t>
+  </si>
+  <si>
+    <t>调试了小组项目</t>
+  </si>
+  <si>
+    <t>5.23-18.00-20.00</t>
+  </si>
+  <si>
+    <t>重新做了需求分析</t>
+  </si>
+  <si>
+    <t>5.24-20.00-22.00</t>
+  </si>
+  <si>
+    <t>学习web层</t>
+  </si>
+  <si>
+    <t>5.25-15.30-17.30</t>
+  </si>
+  <si>
+    <t>调试web层</t>
+  </si>
+  <si>
+    <t>5.28-14.00-16.00</t>
+  </si>
+  <si>
+    <t>整理小组项目</t>
+  </si>
+  <si>
+    <t>5.30-15.30-17.30</t>
+  </si>
+  <si>
+    <t>做需求分析文档</t>
+  </si>
+  <si>
     <t>4.1-20:00-22:00</t>
   </si>
   <si>
@@ -767,21 +830,115 @@
     <t>调试dao层代码</t>
   </si>
   <si>
-    <t>5.16-4:00-7:00</t>
-  </si>
-  <si>
-    <t>学习jpa</t>
+    <t>5.15-17:00-20:00</t>
+  </si>
+  <si>
+    <t>写service层代码</t>
+  </si>
+  <si>
+    <r>
+      <t>5.16-17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00-21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>调试service层代码</t>
+  </si>
+  <si>
+    <r>
+      <t>5.17-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00-19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>学习SpringMVC的一本注解</t>
+  </si>
+  <si>
+    <t>MVC的基本</t>
   </si>
   <si>
     <t>安装数据库，idea及配置</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+    <t>4.2-17.00-19.00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
       </rPr>
       <t>4.</t>
     </r>
@@ -790,27 +947,30 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+    <t>4.5-17.00-19.00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
       </rPr>
       <t>4.</t>
     </r>
@@ -819,236 +979,191 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+    <t>4.9-13.00-15.00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>4.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+    <t>4.12-13.00-15.00</t>
+  </si>
+  <si>
+    <t>4.16-17.00-19.00</t>
+  </si>
+  <si>
+    <t>4.18-13.00-15.00</t>
+  </si>
+  <si>
+    <t>了解dao层，service层，web层及其功能</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>4.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+    <t>安装Native并连接数据库</t>
+  </si>
+  <si>
+    <t>4.23-17.00-19.00</t>
+  </si>
+  <si>
+    <t>4.26-13.00-15.00</t>
+  </si>
+  <si>
+    <t>在eclipse上写dao层代码</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>4.18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+    <t>5.7-17.00-19.00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
   </si>
   <si>
-    <t>了解dao层，service层，web层及其功能</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>4.22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+    <t>了解课本Spring MVC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
   </si>
   <si>
-    <t>安装Native并连接数据库</t>
-  </si>
-  <si>
-    <t>在eclipse上写dao层代码</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-20:00-22:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-20:00-22:00</t>
-    </r>
-  </si>
-  <si>
-    <t>了解课本Spring MVC</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>.10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-20:00-22:00</t>
-    </r>
+    <t>5.13-17.00-19.00</t>
   </si>
   <si>
     <t>写dao层配置文件并连接数据库</t>
@@ -1057,33 +1172,614 @@
     <t>调试代码</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>.15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-20:00-22:00</t>
-    </r>
+    <t>学习时间</t>
+  </si>
+  <si>
+    <t>4.1-19:10-20:53</t>
+  </si>
+  <si>
+    <t>windows下Mysql免安装版，修改my_default.ini配置文件无效的解决办法及heidisql安装与下载</t>
+  </si>
+  <si>
+    <t>4.2-20:45-23:01</t>
+  </si>
+  <si>
+    <t>学习数据库的连接及阅读书本第二十章单元测试</t>
+  </si>
+  <si>
+    <t>4.3-19:25-21:12</t>
+  </si>
+  <si>
+    <t>学习上机内容</t>
+  </si>
+  <si>
+    <t>4.4-19:58-22:01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gitbase</t>
+    </r>
+  </si>
+  <si>
+    <t>4.5-20:00-22:30</t>
+  </si>
+  <si>
+    <t>学习上课内容</t>
+  </si>
+  <si>
+    <t>学习了数据库的基本内容</t>
+  </si>
+  <si>
+    <t>数据库使用及其连接</t>
+  </si>
+  <si>
+    <t>excle表格交换与接收</t>
+  </si>
+  <si>
+    <t>解决依赖配置问题</t>
+  </si>
+  <si>
+    <t>5.4-20:00-22:00</t>
+  </si>
+  <si>
+    <t>网上学习了aop</t>
+  </si>
+  <si>
+    <t>5.11-20:00-22:00</t>
+  </si>
+  <si>
+    <t>5.12-20:00-22:00</t>
+  </si>
+  <si>
+    <t>修改错误</t>
+  </si>
+  <si>
+    <t>2019-4-1-20:00</t>
+  </si>
+  <si>
+    <t>maven的创建</t>
+  </si>
+  <si>
+    <t>2019-4-2-17:00</t>
+  </si>
+  <si>
+    <t>用户统计的基本配置文件</t>
+  </si>
+  <si>
+    <t>2019-4-4-20:00</t>
+  </si>
+  <si>
+    <t>动态web工程的基本配置</t>
+  </si>
+  <si>
+    <t>2019-4-5-20:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">maven </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件配置</t>
+    </r>
+  </si>
+  <si>
+    <t>2019-4-7-13:00</t>
+  </si>
+  <si>
+    <t>用户数据的导入</t>
+  </si>
+  <si>
+    <t>2019-4-9-13:00</t>
+  </si>
+  <si>
+    <t>参数设置</t>
+  </si>
+  <si>
+    <t>2019-4-08-20:00</t>
+  </si>
+  <si>
+    <t>构建并创建数据库</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019-4-09-20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>学习了解数据导入</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019-4-10-20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>参数导入</t>
+  </si>
+  <si>
+    <t>2019-4-11-13:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件设置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019-4-12-20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>了解核心aop</t>
+  </si>
+  <si>
+    <t>2019-4-13-20:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件导入</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019-4-14-20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>了解课本上maven的基本数据导入</t>
+  </si>
+  <si>
+    <t>2019-4-15-13:00</t>
+  </si>
+  <si>
+    <t>用户数据的设置</t>
+  </si>
+  <si>
+    <t>2019-4-16-20:00</t>
+  </si>
+  <si>
+    <t>学习xml的使用</t>
+  </si>
+  <si>
+    <t>2019-4-19-20:00</t>
+  </si>
+  <si>
+    <t>用户文件配置</t>
+  </si>
+  <si>
+    <t>2019-4-20-20:00</t>
+  </si>
+  <si>
+    <t>学习pom配置设置</t>
+  </si>
+  <si>
+    <t>2019-4-23-20:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019-4-25-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>用户需求配置</t>
+  </si>
+  <si>
+    <t>2019-4-26-20:00</t>
+  </si>
+  <si>
+    <t>用户数据修改</t>
+  </si>
+  <si>
+    <t>2019-4-28-20:00</t>
+  </si>
+  <si>
+    <t>写doe层实体并写入数据</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019-5-1-21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>用户配置</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019-5-2-20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>学习spring应用</t>
+  </si>
+  <si>
+    <t>2019-5-4-20:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>maven</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导入文件</t>
+    </r>
+  </si>
+  <si>
+    <t>2019-5-6-20:00</t>
+  </si>
+  <si>
+    <t>了解jdbc并访问数据库</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019-5-9-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>数据输入</t>
+  </si>
+  <si>
+    <t>2019-5-10-20:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并输入数据</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019-5-12-20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置</t>
+    </r>
+  </si>
+  <si>
+    <t>看书本上的内容具体了解老师上课讲的内容</t>
   </si>
   <si>
     <t>学习了jdbc</t>
@@ -1134,25 +1830,330 @@
     <t>修改项目</t>
   </si>
   <si>
-    <t>5.18-9:00-12:00</t>
-  </si>
-  <si>
-    <t>将修改的项目的dao层跑通</t>
-  </si>
-  <si>
-    <t>5.18-11:00-8:00</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>调代码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>了解spring</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">maven </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件配置</t>
+    </r>
+  </si>
+  <si>
+    <t>熟悉maven</t>
+  </si>
+  <si>
+    <t>2019-4-11-20:00</t>
+  </si>
+  <si>
+    <t>学习数据库</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019-4-12-20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019-4-13-20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件设置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019-4-17-20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>2019-4-18-20:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件导入</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019-4-19-20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>2019-4-21-13:00</t>
+  </si>
+  <si>
+    <t>2019-4-22-20:00</t>
+  </si>
+  <si>
+    <t>2019-4-25-20:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+  </si>
+  <si>
+    <t>2019-4-27-20:00</t>
+  </si>
+  <si>
+    <t>2019-4-29-20:00</t>
+  </si>
+  <si>
+    <t>2019-4-30-20:00</t>
+  </si>
+  <si>
+    <t>2019-5-3-20:00</t>
+  </si>
+  <si>
+    <t>2019-5-5-20:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>maven</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导入文件</t>
+    </r>
+  </si>
+  <si>
+    <t>2019-5-7-20:00</t>
+  </si>
+  <si>
+    <t>2019-5-8-20:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并输入数据</t>
+    </r>
+  </si>
+  <si>
+    <t>2019-5-11-20:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1162,13 +2163,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1179,8 +2186,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1193,24 +2205,360 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1218,46 +2566,403 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDADBDA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDADBDA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDADBDA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDADBDA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="54" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="52" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="53"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="52" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2" xfId="1"/>
-    <cellStyle name="常规 2 3" xfId="2"/>
-    <cellStyle name="常规 2 4" xfId="3"/>
-    <cellStyle name="常规 3" xfId="4"/>
-    <cellStyle name="常规 4" xfId="5"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="常规 2 3" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
+    <cellStyle name="常规 2 4" xfId="51"/>
+    <cellStyle name="常规 3" xfId="52"/>
+    <cellStyle name="常规 4" xfId="53"/>
+    <cellStyle name="常规 2" xfId="54"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1546,351 +3251,427 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="14.25" spans="1:7">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="7" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:7">
+      <c r="A3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="7" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="7" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:7">
+      <c r="A5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="7" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="7" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:7">
+      <c r="A7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="7" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="7" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:7">
+      <c r="A9" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="7" t="s">
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="7" t="s">
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:7">
+      <c r="A11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="7" t="s">
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.25">
-      <c r="A13" s="7" t="s">
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:7">
+      <c r="A13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="7" t="s">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="7" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:7">
+      <c r="A15" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="7" t="s">
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:7">
+      <c r="A16" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" ht="14.25">
-      <c r="A17" s="7" t="s">
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:3">
+      <c r="A17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" ht="14.25" spans="1:3">
+      <c r="A18" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" ht="14.25" spans="1:3">
+      <c r="A19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" ht="14.25" spans="1:3">
+      <c r="A20" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25">
-      <c r="A21" s="7" t="s">
+    <row r="21" ht="14.25" spans="1:3">
+      <c r="A21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25">
-      <c r="A22" s="7" t="s">
+    <row r="22" ht="14.25" spans="1:3">
+      <c r="A22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25">
-      <c r="A23" s="7" t="s">
+    <row r="23" ht="14.25" spans="1:3">
+      <c r="A23" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" ht="14.25" spans="1:3">
+      <c r="A24" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25">
-      <c r="A25" s="7" t="s">
+    <row r="25" ht="14.25" spans="1:3">
+      <c r="A25" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25">
-      <c r="A26" s="7" t="s">
+    <row r="26" ht="14.25" spans="1:3">
+      <c r="A26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25">
-      <c r="A27" s="7" t="s">
+    <row r="27" ht="14.25" spans="1:3">
+      <c r="A27" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25">
-      <c r="A28" s="7" t="s">
+    <row r="28" ht="14.25" spans="1:3">
+      <c r="A28" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25">
-      <c r="A29" s="7" t="s">
+    <row r="29" ht="14.25" spans="1:3">
+      <c r="A29" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25">
-      <c r="A30" s="7" t="s">
+    <row r="30" ht="14.25" spans="1:3">
+      <c r="A30" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25">
-      <c r="A31" s="7" t="s">
+    <row r="31" ht="14.25" spans="1:3">
+      <c r="A31" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25">
-      <c r="A32" s="7" t="s">
+    <row r="32" ht="14.25" spans="1:3">
+      <c r="A32" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25">
-      <c r="A33" s="7" t="s">
+    <row r="33" ht="14.25" spans="1:3">
+      <c r="A33" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25">
-      <c r="A34" s="7"/>
-      <c r="C34" s="10"/>
+    <row r="34" ht="14.25" spans="1:3">
+      <c r="A34" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1898,915 +3679,2014 @@
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="14.25">
-      <c r="A4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="14.25">
-      <c r="A5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:4">
+      <c r="A3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:4">
+      <c r="A4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:4">
+      <c r="A5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="14.25">
-      <c r="A6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:4">
+      <c r="A6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:4">
+      <c r="A7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="14.25">
-      <c r="A8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
+      <c r="A8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.25">
-      <c r="A9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:4">
+      <c r="A9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="14.25">
-      <c r="A10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:4">
+      <c r="A10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.25">
-      <c r="A11" s="1" t="s">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:4">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.25">
-      <c r="A12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:4">
+      <c r="A12" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
-      <c r="A13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:4">
+      <c r="A13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.25">
-      <c r="A14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:4">
+      <c r="A14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="14.25">
-      <c r="A15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:4">
+      <c r="A15" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.25">
-      <c r="A16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:4">
+      <c r="A16" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.25">
-      <c r="A17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:4">
+      <c r="A17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.25">
-      <c r="A18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:4">
+      <c r="A18" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.25">
-      <c r="A19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:4">
+      <c r="A19" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.25">
-      <c r="A20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:4">
+      <c r="A20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="14.25">
-      <c r="A21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:4">
+      <c r="A21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" ht="14.25">
-      <c r="A22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:4">
+      <c r="A22" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.25">
-      <c r="A23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3" t="s">
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:4">
+      <c r="A23" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" ht="14.25">
-      <c r="A24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3" t="s">
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:4">
+      <c r="A24" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="14.25">
-      <c r="A25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:4">
+      <c r="A25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="14.25">
-      <c r="A26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3" t="s">
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:4">
+      <c r="A26" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.25">
-      <c r="A27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3" t="s">
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:4">
+      <c r="A27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.25">
-      <c r="A28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3" t="s">
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:4">
+      <c r="A28" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.25">
-      <c r="A29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3" t="s">
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:4">
+      <c r="A29" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="14.25">
-      <c r="A30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4" t="s">
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:4">
+      <c r="A30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" ht="14.25">
-      <c r="A31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4" t="s">
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:4">
+      <c r="A31" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" ht="14.25">
-      <c r="A32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4" t="s">
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:4">
+      <c r="A32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" ht="14.25">
-      <c r="A33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" ht="14.25">
-      <c r="A34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="14.25">
-      <c r="A35" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>139</v>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:4">
+      <c r="A33" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" ht="16.5" spans="1:4">
+      <c r="A34" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="29"/>
+    </row>
+    <row r="35" ht="16.5" spans="1:4">
+      <c r="A35" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="29"/>
+    </row>
+    <row r="36" ht="16.5" spans="1:4">
+      <c r="A36" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="14.25" spans="1:4">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25">
-      <c r="A3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:4">
+      <c r="A3" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25">
-      <c r="A4" s="7" t="s">
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:4">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25">
-      <c r="A5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:4">
+      <c r="A5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:4">
+      <c r="A6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25">
-      <c r="A7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:4">
+      <c r="A7" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
+      <c r="A8" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25">
-      <c r="A9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:4">
+      <c r="A9" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25">
-      <c r="A10" s="7" t="s">
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:4">
+      <c r="A10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25">
-      <c r="A11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:4">
+      <c r="A11" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25">
-      <c r="A12" s="7" t="s">
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:4">
+      <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:4">
+      <c r="A13" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.25">
-      <c r="A14" s="7" t="s">
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:4">
+      <c r="A14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.25">
-      <c r="A15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:4">
+      <c r="A15" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25">
-      <c r="A16" s="7" t="s">
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:4">
+      <c r="A16" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25">
-      <c r="A17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25">
-      <c r="A18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:4">
+      <c r="A17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:4">
+      <c r="A18" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25">
-      <c r="A19" s="7" t="s">
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:4">
+      <c r="A19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25">
-      <c r="A20" s="7" t="s">
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:4">
+      <c r="A20" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25">
-      <c r="A21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:4">
+      <c r="A21" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25">
-      <c r="A22" s="7" t="s">
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:4">
+      <c r="A22" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="27" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25">
-      <c r="A23" s="7" t="s">
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:4">
+      <c r="A23" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="27" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25">
-      <c r="A24" s="7" t="s">
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:4">
+      <c r="A24" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25">
-      <c r="A25" s="7" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:4">
+      <c r="A25" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25">
-      <c r="A26" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:4">
+      <c r="A26" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25">
-      <c r="A27" s="7" t="s">
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:4">
+      <c r="A27" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25">
-      <c r="A28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:4">
+      <c r="A28" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.25">
-      <c r="A29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.25">
-      <c r="A30" s="7" t="s">
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:4">
+      <c r="A29" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:4">
+      <c r="A30" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="27" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25">
-      <c r="A31" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:4">
+      <c r="A31" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25">
-      <c r="A32" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.25">
-      <c r="A33" s="7" t="s">
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:4">
+      <c r="A32" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:4">
+      <c r="A33" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.25">
-      <c r="A34" s="7" t="s">
-        <v>119</v>
-      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="3" max="3" width="50.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3">
+      <c r="A1" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="162" spans="1:3">
+      <c r="A2" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:3">
+      <c r="A4" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:3">
+      <c r="A5" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:3">
+      <c r="A6" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:3">
+      <c r="A7" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:3">
+      <c r="A8" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:3">
+      <c r="A9" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:3">
+      <c r="A10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:3">
+      <c r="A11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:3">
+      <c r="A12" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:3">
+      <c r="A13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:3">
+      <c r="A14" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:3">
+      <c r="A15" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:3">
+      <c r="A16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:3">
+      <c r="A17" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:3">
+      <c r="A18" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:3">
+      <c r="A19" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:3">
+      <c r="A20" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:3">
+      <c r="A21" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:3">
+      <c r="A22" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:3">
+      <c r="A23" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:3">
+      <c r="A24" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:3">
+      <c r="A25" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:3">
+      <c r="A26" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:3">
+      <c r="A27" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:3">
+      <c r="A28" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:3">
+      <c r="A29" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:3">
+      <c r="A30" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:3">
+      <c r="A31" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:3">
+      <c r="A32" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:5">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:5">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:5">
+      <c r="A4" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:5">
+      <c r="A6" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:5">
+      <c r="A8" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:5">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:5">
+      <c r="A10" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:5">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:5">
+      <c r="A12" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:5">
+      <c r="A13" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:5">
+      <c r="A14" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:5">
+      <c r="A15" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:5">
+      <c r="A16" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:5">
+      <c r="A17" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:5">
+      <c r="A18" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:5">
+      <c r="A19" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:5">
+      <c r="A20" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:5">
+      <c r="A21" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:5">
+      <c r="A22" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:5">
+      <c r="A23" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:5">
+      <c r="A24" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:5">
+      <c r="A25" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:5">
+      <c r="A26" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:5">
+      <c r="A27" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:5">
+      <c r="A28" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:5">
+      <c r="A29" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:5">
+      <c r="A30" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:5">
+      <c r="A31" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:5">
+      <c r="A32" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:5">
+      <c r="A33" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:5">
+      <c r="A34" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:3">
+      <c r="A2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:3">
+      <c r="A4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:3">
+      <c r="A5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:3">
+      <c r="A6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:3">
+      <c r="A7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:3">
+      <c r="A9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:3">
+      <c r="A10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:3">
+      <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:3">
+      <c r="A12" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:3">
+      <c r="A13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:3">
+      <c r="A14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:3">
+      <c r="A15" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:3">
+      <c r="A16" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:3">
+      <c r="A17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:3">
+      <c r="A18" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:3">
+      <c r="A19" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:3">
+      <c r="A20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:3">
+      <c r="A21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:3">
+      <c r="A22" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:3">
+      <c r="A23" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:3">
+      <c r="A24" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:3">
+      <c r="A25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:3">
+      <c r="A26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:3">
+      <c r="A27" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:3">
+      <c r="A28" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:3">
+      <c r="A29" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:3">
+      <c r="A30" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="1" t="s">
-        <v>72</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25">
-      <c r="A3" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="C2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:4">
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25">
-      <c r="A4" s="1" t="s">
-        <v>74</v>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25">
-      <c r="A5" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="C4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:4">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25">
-      <c r="A6" s="1" t="s">
-        <v>76</v>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
+      <c r="C6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="1" t="s">
-        <v>77</v>
+      <c r="C7" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25">
-      <c r="A9" s="1" t="s">
-        <v>78</v>
+      <c r="C8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25">
-      <c r="A10" s="1" t="s">
-        <v>79</v>
+      <c r="C9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25">
-      <c r="A11" s="1" t="s">
-        <v>80</v>
+      <c r="C10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25">
-      <c r="A12" s="1" t="s">
-        <v>81</v>
+      <c r="C11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="1" t="s">
-        <v>82</v>
+      <c r="C12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.25">
-      <c r="A14" s="1" t="s">
-        <v>83</v>
+      <c r="C13" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.25">
-      <c r="A15" s="1" t="s">
-        <v>84</v>
+      <c r="C14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25">
-      <c r="A16" s="1" t="s">
-        <v>85</v>
+      <c r="C15" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25">
-      <c r="A17" s="1" t="s">
-        <v>86</v>
+      <c r="C16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25">
-      <c r="A18" s="1" t="s">
-        <v>87</v>
+      <c r="C17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25">
-      <c r="A19" s="1" t="s">
-        <v>88</v>
+      <c r="C18" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25">
-      <c r="A20" s="1" t="s">
-        <v>89</v>
+      <c r="C19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25">
-      <c r="A21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25">
-      <c r="A22" s="1" t="s">
-        <v>92</v>
+      <c r="C20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25">
-      <c r="A23" s="1" t="s">
-        <v>95</v>
+      <c r="C22" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25">
-      <c r="A24" s="1" t="s">
-        <v>96</v>
+      <c r="C23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25">
-      <c r="A25" s="1" t="s">
-        <v>97</v>
+      <c r="C24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25">
-      <c r="A26" s="1" t="s">
-        <v>134</v>
+      <c r="C25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" t="s">
-        <v>137</v>
-      </c>
+      <c r="C26" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/EBMlog.xlsx
+++ b/doc/EBMlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19875" windowHeight="7515" activeTab="1"/>
+    <workbookView windowWidth="19875" windowHeight="7515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="刘士卿" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="332">
   <si>
     <t>提交时间</t>
   </si>
@@ -837,6 +837,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>5.16-17</t>
     </r>
     <r>
@@ -881,6 +887,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>5.17-15</t>
     </r>
     <r>
@@ -1172,6 +1184,72 @@
     <t>调试代码</t>
   </si>
   <si>
+    <t>5.16-20:00-22:00</t>
+  </si>
+  <si>
+    <t>学习用JPA写增删改查函数</t>
+  </si>
+  <si>
+    <t>5.17-20:00-22:00</t>
+  </si>
+  <si>
+    <t>写配置文件并调试错误</t>
+  </si>
+  <si>
+    <t>5.20-20:00-22:00</t>
+  </si>
+  <si>
+    <t>看jpa教学视频</t>
+  </si>
+  <si>
+    <t>5.21-20:00-22:00</t>
+  </si>
+  <si>
+    <t>看Springmvc教学视频</t>
+  </si>
+  <si>
+    <t>5.22-20:00-22:00</t>
+  </si>
+  <si>
+    <t>写简单的helloworld</t>
+  </si>
+  <si>
+    <t>5.23-20:00-22:00</t>
+  </si>
+  <si>
+    <t>配置web层tomcat、</t>
+  </si>
+  <si>
+    <t>5.24-20:00-22:00</t>
+  </si>
+  <si>
+    <t>学习submit</t>
+  </si>
+  <si>
+    <t>5.27-20:00-22:00</t>
+  </si>
+  <si>
+    <t>学习Pojo</t>
+  </si>
+  <si>
+    <t>5.28-20:00-22:00</t>
+  </si>
+  <si>
+    <t>学习整合junit</t>
+  </si>
+  <si>
+    <t>5.29-20:00-22:00</t>
+  </si>
+  <si>
+    <t>学习requstMapping请求</t>
+  </si>
+  <si>
+    <t>5.30-20:00-22:00</t>
+  </si>
+  <si>
+    <t>5.31-20:00-22:00</t>
+  </si>
+  <si>
     <t>学习时间</t>
   </si>
   <si>
@@ -1249,6 +1327,78 @@
     <t>修改错误</t>
   </si>
   <si>
+    <t>5.15-20:00-22:00</t>
+  </si>
+  <si>
+    <t>修改项目</t>
+  </si>
+  <si>
+    <t>5.18-9:00-12:00</t>
+  </si>
+  <si>
+    <t>将修改的项目的dao层跑通</t>
+  </si>
+  <si>
+    <t>5.19-19:00-21:00</t>
+  </si>
+  <si>
+    <t>调试service</t>
+  </si>
+  <si>
+    <t>5.20-19:00-21:00</t>
+  </si>
+  <si>
+    <t>service层错误修改</t>
+  </si>
+  <si>
+    <t>5.21-19:00-21:00</t>
+  </si>
+  <si>
+    <t>学习manmytoone和Onetomany</t>
+  </si>
+  <si>
+    <t>5.22-19:00-21:00</t>
+  </si>
+  <si>
+    <t>学习@RequestMapping的相关内容</t>
+  </si>
+  <si>
+    <t>5.23-19:00-21:00</t>
+  </si>
+  <si>
+    <t>在项目里建立web层</t>
+  </si>
+  <si>
+    <t>5.26-19:00-21:00</t>
+  </si>
+  <si>
+    <t>学习Mvc的映射</t>
+  </si>
+  <si>
+    <t>5.27-19:00-21:00</t>
+  </si>
+  <si>
+    <t>了解视图解析器的内容</t>
+  </si>
+  <si>
+    <t>5.28-19:00-21:00</t>
+  </si>
+  <si>
+    <t>学习JQuery</t>
+  </si>
+  <si>
+    <t>6.1-13:00-16:30</t>
+  </si>
+  <si>
+    <t>写配置管理文档</t>
+  </si>
+  <si>
+    <t>6.2-14：00-15：42</t>
+  </si>
+  <si>
+    <t>补充配置管理文档</t>
+  </si>
+  <si>
     <t>2019-4-1-20:00</t>
   </si>
   <si>
@@ -1824,10 +1974,55 @@
     <t>尝试运行</t>
   </si>
   <si>
-    <t>5.15-20:00-22:00</t>
-  </si>
-  <si>
-    <t>修改项目</t>
+    <t>写项目的service，并写出测试类</t>
+  </si>
+  <si>
+    <t>对service层的错误进行搜索，并改正</t>
+  </si>
+  <si>
+    <t>对manmytoone和Onetomany进行深入的了解</t>
+  </si>
+  <si>
+    <t>从maven Repository中下载所需的依赖并配置DispatcherServlet</t>
+  </si>
+  <si>
+    <t>5.24-19:00-21:00</t>
+  </si>
+  <si>
+    <t>将web层的web.xml中的配置写全，并写出视图解析器</t>
+  </si>
+  <si>
+    <t>5.25-19:00-21:00</t>
+  </si>
+  <si>
+    <t>学习@RequestParam和@RequestHeader的注解</t>
+  </si>
+  <si>
+    <t>学习Spring MVC处理数据模型</t>
+  </si>
+  <si>
+    <t>5.29-19:00-21:00</t>
+  </si>
+  <si>
+    <t>写框架设计文档</t>
+  </si>
+  <si>
+    <t>5.30-19:00-21:00</t>
+  </si>
+  <si>
+    <t>补充框架设计文档内容</t>
+  </si>
+  <si>
+    <t>5.31-19:00-21:00</t>
+  </si>
+  <si>
+    <t>写项目模块设计文档</t>
+  </si>
+  <si>
+    <t>6.1:-19:00-21:00</t>
+  </si>
+  <si>
+    <t>学习视图解析器</t>
   </si>
   <si>
     <t>了解spring</t>
@@ -2148,12 +2343,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2196,6 +2391,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2208,28 +2409,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2251,14 +2445,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2266,7 +2467,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2298,17 +2514,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2328,15 +2536,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2344,15 +2553,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2373,19 +2581,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2397,43 +2623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2445,19 +2641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2475,7 +2665,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2487,73 +2749,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2585,8 +2793,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2595,6 +2833,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2618,8 +2867,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2638,47 +2887,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2687,10 +2895,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2699,143 +2907,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2856,10 +3064,22 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2869,7 +3089,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2881,17 +3101,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="54" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="54"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2900,11 +3132,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="52" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="53"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="52" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="53" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="53"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="52" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3266,338 +3498,338 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" ht="14.25" spans="1:7">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" ht="14.25" spans="1:7">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" ht="14.25" spans="1:7">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" ht="14.25" spans="1:7">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" ht="14.25" spans="1:7">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" ht="14.25" spans="1:7">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" ht="14.25" spans="1:3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="41" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:3">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="41" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="41" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:3">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="41" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:3">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:3">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="41" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:3">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:3">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:3">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="41" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:3">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="41" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:3">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="41" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:3">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="41" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:3">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="41" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:3">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="41" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:3">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="41" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:3">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="41" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:3">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="41" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3689,7 +3921,7 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -4026,34 +4258,34 @@
       <c r="D33" s="8"/>
     </row>
     <row r="34" ht="16.5" spans="1:4">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="29"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" ht="16.5" spans="1:4">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="37"/>
+      <c r="C35" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="29"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" ht="16.5" spans="1:4">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30" t="s">
+      <c r="B36" s="37"/>
+      <c r="C36" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="39" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4066,345 +4298,464 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" ht="14.25" spans="1:4">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" ht="14.25" spans="1:4">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" ht="14.25" spans="1:4">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" ht="14.25" spans="1:4">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" ht="14.25" spans="1:4">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" ht="14.25" spans="1:4">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" ht="14.25" spans="1:4">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" ht="14.25" spans="1:4">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" ht="14.25" spans="1:4">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" ht="14.25" spans="1:4">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="25"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" ht="14.25" spans="1:4">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" ht="14.25" spans="1:4">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" ht="14.25" spans="1:4">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="25"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" ht="14.25" spans="1:4">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" ht="14.25" spans="1:4">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" ht="14.25" spans="1:4">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" ht="14.25" spans="1:4">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" ht="14.25" spans="1:4">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="25"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" ht="14.25" spans="1:4">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="25"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" ht="14.25" spans="1:4">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" ht="14.25" spans="1:4">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" ht="14.25" spans="1:4">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27" t="s">
+      <c r="B32" s="33"/>
+      <c r="C32" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" ht="14.25" spans="1:4">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="D33" s="25"/>
+      <c r="D33" s="32"/>
+    </row>
+    <row r="34" ht="16.5" spans="1:4">
+      <c r="A34" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" ht="16.5" spans="1:4">
+      <c r="A35" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" ht="16.5" spans="1:4">
+      <c r="A36" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" ht="16.5" spans="1:4">
+      <c r="A37" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" ht="16.5" spans="1:4">
+      <c r="A38" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" ht="16.5" spans="1:4">
+      <c r="A39" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" ht="16.5" spans="1:4">
+      <c r="A40" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" ht="16.5" spans="1:4">
+      <c r="A41" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" ht="16.5" spans="1:4">
+      <c r="A42" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" ht="16.5" spans="1:4">
+      <c r="A43" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" ht="16.5" spans="1:4">
+      <c r="A44" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" ht="16.5" spans="1:4">
+      <c r="A45" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C43" r:id="rId1" display="学习requstMapping请求" tooltip="mailto:学习@requstMapping请求"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -4413,299 +4764,407 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="162" spans="1:3">
-      <c r="A2" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="18" t="s">
-        <v>153</v>
+      <c r="A2" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="22" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="19" t="s">
-        <v>155</v>
+      <c r="A3" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="23" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="19" t="s">
-        <v>157</v>
+      <c r="A4" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="23" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="19" t="s">
-        <v>159</v>
+      <c r="A5" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="23" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:3">
-      <c r="A6" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="19" t="s">
-        <v>161</v>
+      <c r="A6" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="23" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="21" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="21" t="s">
         <v>94</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="25" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="21" t="s">
         <v>95</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="25" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="21" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="20" t="s">
-        <v>162</v>
+      <c r="C10" s="24" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="20" t="s">
-        <v>163</v>
+      <c r="C11" s="24" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="21" t="s">
         <v>98</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="21" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="21" t="s">
         <v>100</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="21" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="21" t="s">
         <v>105</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="21" t="s">
         <v>106</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="20" t="s">
-        <v>164</v>
+      <c r="C21" s="24" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="21" t="s">
         <v>107</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="20" t="s">
-        <v>165</v>
+      <c r="C22" s="24" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="21" t="s">
         <v>109</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:3">
-      <c r="A25" s="17" t="s">
-        <v>166</v>
+      <c r="A25" s="21" t="s">
+        <v>188</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="20" t="s">
-        <v>167</v>
+      <c r="C25" s="24" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="21" t="s">
         <v>113</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="21" t="s">
         <v>115</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="21" t="s">
         <v>116</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="26" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:3">
-      <c r="A29" s="17" t="s">
-        <v>168</v>
+      <c r="A29" s="21" t="s">
+        <v>190</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:3">
-      <c r="A30" s="17" t="s">
-        <v>169</v>
+      <c r="A30" s="21" t="s">
+        <v>191</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:3">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="21" t="s">
         <v>117</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="25" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="21" t="s">
         <v>118</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="21" t="s">
-        <v>170</v>
+      <c r="C32" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:3">
+      <c r="A33" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:3">
+      <c r="A34" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:3">
+      <c r="A35" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:3">
+      <c r="A36" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:3">
+      <c r="A37" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="1:3">
+      <c r="A38" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="1:3">
+      <c r="A39" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="1:3">
+      <c r="A40" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:3">
+      <c r="A41" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:3">
+      <c r="A42" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="1:3">
+      <c r="A43" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" spans="1:3">
+      <c r="A44" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="28" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4726,358 +5185,358 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" ht="14.25" spans="1:5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" ht="14.25" spans="1:5">
-      <c r="A6" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" ht="14.25" spans="1:5">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" ht="14.25" spans="1:5">
-      <c r="A8" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" ht="14.25" spans="1:5">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" ht="14.25" spans="1:5">
-      <c r="A10" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" ht="14.25" spans="1:5">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" ht="14.25" spans="1:5">
-      <c r="A12" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" ht="14.25" spans="1:5">
-      <c r="A13" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="A13" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="14.25" spans="1:5">
-      <c r="A14" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" ht="14.25" spans="1:5">
-      <c r="A15" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="14.25" spans="1:5">
-      <c r="A16" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="A16" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" ht="14.25" spans="1:5">
-      <c r="A17" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="A17" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" ht="14.25" spans="1:5">
-      <c r="A18" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="A18" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" ht="14.25" spans="1:5">
-      <c r="A19" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="A19" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" ht="14.25" spans="1:5">
-      <c r="A20" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="A20" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" ht="14.25" spans="1:5">
-      <c r="A21" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" ht="14.25" spans="1:5">
-      <c r="A22" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="A22" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" ht="14.25" spans="1:5">
-      <c r="A23" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="A23" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" ht="14.25" spans="1:5">
-      <c r="A24" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="A24" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" ht="14.25" spans="1:5">
-      <c r="A25" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="A25" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" ht="14.25" spans="1:5">
-      <c r="A26" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="A26" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" ht="14.25" spans="1:5">
-      <c r="A27" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="A27" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" ht="14.25" spans="1:5">
-      <c r="A28" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="A28" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" ht="14.25" spans="1:5">
-      <c r="A29" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="A29" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" ht="14.25" spans="1:5">
-      <c r="A30" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="A30" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" ht="14.25" spans="1:5">
-      <c r="A31" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="A31" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" ht="14.25" spans="1:5">
-      <c r="A32" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="A32" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" ht="14.25" spans="1:5">
-      <c r="A33" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="A33" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" ht="14.25" spans="1:5">
-      <c r="A34" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="A34" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5088,13 +5547,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
@@ -5120,7 +5579,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
@@ -5138,7 +5597,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="7" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:3">
@@ -5147,7 +5606,7 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="7" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:3">
@@ -5165,7 +5624,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="7" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:3">
@@ -5183,7 +5642,7 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="7" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:3">
@@ -5210,7 +5669,7 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="7" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:3">
@@ -5219,7 +5678,7 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="7" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:3">
@@ -5228,7 +5687,7 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="7" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:3">
@@ -5264,7 +5723,7 @@
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="7" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:3">
@@ -5291,7 +5750,7 @@
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="7" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:3">
@@ -5309,7 +5768,7 @@
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="7" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:3">
@@ -5318,7 +5777,7 @@
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="7" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:3">
@@ -5327,7 +5786,7 @@
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="7" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:3">
@@ -5345,7 +5804,7 @@
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="11" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:3">
@@ -5354,17 +5813,157 @@
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="11" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:3">
       <c r="A30" s="10" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="9" t="s">
-        <v>243</v>
-      </c>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:4">
+      <c r="A31" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" ht="16.5" spans="1:4">
+      <c r="A32" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" ht="16.5" spans="1:4">
+      <c r="A33" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" ht="16.5" spans="1:4">
+      <c r="A34" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" ht="16.5" spans="1:4">
+      <c r="A35" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" ht="16.5" spans="1:4">
+      <c r="A36" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" ht="16.5" spans="1:4">
+      <c r="A37" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" ht="16.5" spans="1:4">
+      <c r="A38" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" ht="16.5" spans="1:4">
+      <c r="A39" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" ht="16.5" spans="1:4">
+      <c r="A40" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" ht="16.5" spans="1:4">
+      <c r="A41" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" ht="16.5" spans="1:4">
+      <c r="A42" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" ht="16.5" spans="1:4">
+      <c r="A43" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" ht="16.5" spans="1:4">
+      <c r="A44" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5395,11 +5994,11 @@
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -5411,11 +6010,11 @@
     </row>
     <row r="4" ht="14.25" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -5427,261 +6026,261 @@
     </row>
     <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" ht="14.25" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" ht="14.25" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="4" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" ht="14.25" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" ht="14.25" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="4" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" ht="14.25" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" ht="14.25" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" ht="14.25" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" ht="14.25" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" ht="14.25" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="4" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" ht="14.25" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="1" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" ht="14.25" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" ht="14.25" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="1" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" ht="14.25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>263</v>
+        <v>324</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="1" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" ht="14.25" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="1" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" ht="14.25" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="4" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" ht="14.25" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="1" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" ht="14.25" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="1" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" ht="14.25" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="1" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" ht="14.25" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="4" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="D31" s="2"/>
     </row>

--- a/doc/EBMlog.xlsx
+++ b/doc/EBMlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19875" windowHeight="7515" activeTab="2"/>
+    <workbookView windowWidth="19875" windowHeight="7515" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="刘士卿" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="375">
   <si>
     <t>提交时间</t>
   </si>
@@ -1929,6 +1929,72 @@
     </r>
   </si>
   <si>
+    <t>2019-5-13-20：00</t>
+  </si>
+  <si>
+    <t>dao层xml的配置</t>
+  </si>
+  <si>
+    <t>2019-5-15-20：00</t>
+  </si>
+  <si>
+    <t>dao层基本配置</t>
+  </si>
+  <si>
+    <t>2019-5-17-20：00</t>
+  </si>
+  <si>
+    <t>dao错误修改</t>
+  </si>
+  <si>
+    <t>2019-5-18-20：00</t>
+  </si>
+  <si>
+    <t>dao层配置文件并连接数据库</t>
+  </si>
+  <si>
+    <t>2019-5-19-20：00</t>
+  </si>
+  <si>
+    <t>sevice层的配置导入</t>
+  </si>
+  <si>
+    <t>2019-5-21-20：00</t>
+  </si>
+  <si>
+    <t>service层服务写入</t>
+  </si>
+  <si>
+    <t>2019-5-23-20：00</t>
+  </si>
+  <si>
+    <t>service错误查找</t>
+  </si>
+  <si>
+    <t>2019-5-25-20：00</t>
+  </si>
+  <si>
+    <t>service导入数据库</t>
+  </si>
+  <si>
+    <t>2019-5-27-20：00</t>
+  </si>
+  <si>
+    <t>项目导入</t>
+  </si>
+  <si>
+    <t>2019-5-29-20：00</t>
+  </si>
+  <si>
+    <t>整体项目修正</t>
+  </si>
+  <si>
+    <t>2019-5-31-20：00</t>
+  </si>
+  <si>
+    <t>项目整理并导入数据库</t>
+  </si>
+  <si>
     <t>看书本上的内容具体了解老师上课讲的内容</t>
   </si>
   <si>
@@ -2336,6 +2402,104 @@
       </rPr>
       <t>配置</t>
     </r>
+  </si>
+  <si>
+    <t>2019-5-12-20:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置</t>
+    </r>
+  </si>
+  <si>
+    <t>2019-5-14-20:00</t>
+  </si>
+  <si>
+    <t>更改dao层实体</t>
+  </si>
+  <si>
+    <t>2019-5-16-20:00</t>
+  </si>
+  <si>
+    <t>重新完善dao数据</t>
+  </si>
+  <si>
+    <t>2019-5-17-20:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分析s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ervice层逻辑</t>
+    </r>
+  </si>
+  <si>
+    <t>2019-5-19-20:00</t>
+  </si>
+  <si>
+    <t>写service层</t>
+  </si>
+  <si>
+    <t>2019-5-21-20:00</t>
+  </si>
+  <si>
+    <t>完善service层</t>
+  </si>
+  <si>
+    <t>2019-5-23-20:00</t>
+  </si>
+  <si>
+    <t>2019-5-25-20:00</t>
+  </si>
+  <si>
+    <t>2019-5-27-20:00</t>
+  </si>
+  <si>
+    <t>项目整合</t>
+  </si>
+  <si>
+    <t>2019-5-28-20:00</t>
+  </si>
+  <si>
+    <t>web配置</t>
+  </si>
+  <si>
+    <t>2019-5-29-20:00</t>
+  </si>
+  <si>
+    <t>2019-5-30-20:00</t>
+  </si>
+  <si>
+    <t>写web层</t>
   </si>
 </sst>
 </file>
@@ -2343,12 +2507,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2370,6 +2534,17 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -2422,72 +2597,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2512,9 +2621,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2537,10 +2712,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2553,7 +2728,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2581,7 +2756,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2593,19 +2816,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2617,25 +2870,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2647,121 +2930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2794,7 +2969,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2832,8 +3046,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2848,45 +3062,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2895,10 +3070,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2907,141 +3082,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -3055,14 +3230,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3073,29 +3253,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3107,36 +3290,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="54" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="54"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="54" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="54"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="52" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="53" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="53"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="52" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="52" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="53"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="52" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3928,364 +4099,364 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" ht="14.25" spans="1:4">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" ht="14.25" spans="1:4">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" ht="14.25" spans="1:4">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" ht="14.25" spans="1:4">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" ht="14.25" spans="1:4">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" ht="14.25" spans="1:4">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" ht="14.25" spans="1:4">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" ht="14.25" spans="1:4">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" ht="14.25" spans="1:4">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" ht="14.25" spans="1:4">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" ht="14.25" spans="1:4">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" ht="14.25" spans="1:4">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" ht="14.25" spans="1:4">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" ht="14.25" spans="1:4">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" ht="14.25" spans="1:4">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" ht="14.25" spans="1:4">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" ht="14.25" spans="1:4">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" ht="14.25" spans="1:4">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" ht="14.25" spans="1:4">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" ht="14.25" spans="1:4">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" ht="14.25" spans="1:4">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" ht="14.25" spans="1:4">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="11" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" ht="14.25" spans="1:4">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" ht="16.5" spans="1:4">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="37"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" ht="16.5" spans="1:4">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="37"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" ht="16.5" spans="1:4">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="16" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4300,457 +4471,457 @@
   <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" ht="14.25" spans="1:4">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" ht="14.25" spans="1:4">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="36"/>
     </row>
     <row r="13" ht="14.25" spans="1:4">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" ht="14.25" spans="1:4">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" ht="14.25" spans="1:4">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" ht="14.25" spans="1:4">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" ht="14.25" spans="1:4">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" ht="14.25" spans="1:4">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="32"/>
+      <c r="D18" s="36"/>
     </row>
     <row r="19" ht="14.25" spans="1:4">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="32"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" ht="14.25" spans="1:4">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" ht="14.25" spans="1:4">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="32"/>
+      <c r="D21" s="36"/>
     </row>
     <row r="22" ht="14.25" spans="1:4">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="32"/>
+      <c r="D22" s="36"/>
     </row>
     <row r="23" ht="14.25" spans="1:4">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="36"/>
     </row>
     <row r="24" ht="14.25" spans="1:4">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="36"/>
     </row>
     <row r="25" ht="14.25" spans="1:4">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" ht="14.25" spans="1:4">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34" t="s">
+      <c r="B26" s="37"/>
+      <c r="C26" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="36"/>
     </row>
     <row r="27" ht="14.25" spans="1:4">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34" t="s">
+      <c r="B27" s="37"/>
+      <c r="C27" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" ht="14.25" spans="1:4">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="32"/>
+      <c r="D28" s="36"/>
     </row>
     <row r="29" ht="14.25" spans="1:4">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34" t="s">
+      <c r="B29" s="37"/>
+      <c r="C29" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="36"/>
     </row>
     <row r="30" ht="14.25" spans="1:4">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" ht="14.25" spans="1:4">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" ht="14.25" spans="1:4">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="36"/>
     </row>
     <row r="33" ht="14.25" spans="1:4">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" ht="16.5" spans="1:4">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="14" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" ht="16.5" spans="1:4">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="14" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" ht="16.5" spans="1:4">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="14" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="18"/>
     </row>
     <row r="37" ht="16.5" spans="1:4">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="14" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="18"/>
     </row>
     <row r="38" ht="16.5" spans="1:4">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="14" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="18"/>
     </row>
     <row r="39" ht="16.5" spans="1:4">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="14" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="15"/>
+      <c r="D39" s="18"/>
     </row>
     <row r="40" ht="16.5" spans="1:4">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="14" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="18"/>
     </row>
     <row r="41" ht="16.5" spans="1:4">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="14" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D41" s="15"/>
+      <c r="D41" s="18"/>
     </row>
     <row r="42" ht="16.5" spans="1:4">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="14" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="15"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" ht="16.5" spans="1:4">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="35" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="15"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" ht="16.5" spans="1:4">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" ht="16.5" spans="1:4">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4773,397 +4944,397 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="162" spans="1:3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="26" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="27" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="27" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="27" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="27" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="29" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="29" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="28" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="28" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="24" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="24" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="28" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="28" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:3">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="28" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:3">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:3">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="28" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:3">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="24" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="28" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="24" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="28" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:3">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="30" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:3">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="24" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:3">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:3">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="25" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="29" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:3">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="28" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="32" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:3">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="28" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="32" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:3">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="28" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="32" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:3">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="28" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="32" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:3">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="28" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="32" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="1:3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="28" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="32" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="1:3">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="28" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="32" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="1:3">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="28" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="32" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="1:3">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="28" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="32" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="42" ht="16.5" spans="1:3">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="28" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="32" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="43" ht="16.5" spans="1:3">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="28" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="32" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="1:3">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="28" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="32" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5176,367 +5347,455 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" ht="14.25" spans="1:5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" ht="14.25" spans="1:5">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" ht="14.25" spans="1:5">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" ht="14.25" spans="1:5">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" ht="14.25" spans="1:5">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" ht="14.25" spans="1:5">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" ht="14.25" spans="1:5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" ht="14.25" spans="1:5">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" ht="14.25" spans="1:5">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" ht="14.25" spans="1:5">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" ht="14.25" spans="1:5">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" ht="14.25" spans="1:5">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" ht="14.25" spans="1:5">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" ht="14.25" spans="1:5">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" ht="14.25" spans="1:5">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="16" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" ht="14.25" spans="1:5">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" ht="14.25" spans="1:5">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" ht="14.25" spans="1:5">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" ht="14.25" spans="1:5">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="16" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" ht="14.25" spans="1:5">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" ht="14.25" spans="1:5">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" ht="14.25" spans="1:5">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" ht="14.25" spans="1:5">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" ht="14.25" spans="1:5">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="16" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" ht="14.25" spans="1:5">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" ht="14.25" spans="1:5">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" ht="14.25" spans="1:5">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="16" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" ht="14.25" spans="1:5">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="16" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33" ht="14.25" spans="1:5">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="16" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
     </row>
     <row r="34" ht="14.25" spans="1:5">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="C40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="C41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C45" t="s">
+        <v>294</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5556,414 +5815,414 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
-        <v>273</v>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7" t="s">
-        <v>274</v>
+      <c r="B5" s="11"/>
+      <c r="C5" s="10" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7" t="s">
-        <v>275</v>
+      <c r="B6" s="11"/>
+      <c r="C6" s="10" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7" t="s">
-        <v>276</v>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7" t="s">
-        <v>277</v>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7" t="s">
-        <v>278</v>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7" t="s">
-        <v>279</v>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7" t="s">
-        <v>280</v>
+      <c r="B15" s="11"/>
+      <c r="C15" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7" t="s">
-        <v>281</v>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7" t="s">
-        <v>282</v>
+      <c r="B22" s="11"/>
+      <c r="C22" s="10" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7" t="s">
-        <v>283</v>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7" t="s">
-        <v>284</v>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7" t="s">
-        <v>285</v>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="11" t="s">
-        <v>286</v>
+      <c r="B28" s="11"/>
+      <c r="C28" s="14" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="11" t="s">
-        <v>287</v>
+      <c r="B29" s="11"/>
+      <c r="C29" s="14" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:4">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" ht="16.5" spans="1:4">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="D32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" ht="16.5" spans="1:4">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="D33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" ht="16.5" spans="1:4">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="D34" s="15"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" ht="16.5" spans="1:4">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="13" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" ht="16.5" spans="1:4">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="D36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D36" s="18"/>
     </row>
     <row r="37" ht="16.5" spans="1:4">
-      <c r="A37" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="D37" s="15"/>
+      <c r="A37" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D37" s="18"/>
     </row>
     <row r="38" ht="16.5" spans="1:4">
-      <c r="A38" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="13" t="s">
+      <c r="A38" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="18"/>
     </row>
     <row r="39" ht="16.5" spans="1:4">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="D39" s="15"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D39" s="18"/>
     </row>
     <row r="40" ht="16.5" spans="1:4">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="D40" s="15"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D40" s="18"/>
     </row>
     <row r="41" ht="16.5" spans="1:4">
-      <c r="A41" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="D41" s="15"/>
+      <c r="A41" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D41" s="18"/>
     </row>
     <row r="42" ht="16.5" spans="1:4">
-      <c r="A42" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D42" s="15"/>
+      <c r="A42" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" ht="16.5" spans="1:4">
-      <c r="A43" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D43" s="15"/>
+      <c r="A43" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" ht="16.5" spans="1:4">
-      <c r="A44" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="D44" s="15"/>
+      <c r="A44" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D44" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5974,10 +6233,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6030,7 +6289,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -6040,7 +6299,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -6050,7 +6309,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -6066,17 +6325,17 @@
     </row>
     <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
@@ -6086,7 +6345,7 @@
     </row>
     <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
@@ -6100,13 +6359,13 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="4" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" ht="14.25" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
@@ -6116,17 +6375,17 @@
     </row>
     <row r="15" ht="14.25" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="4" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
@@ -6136,7 +6395,7 @@
     </row>
     <row r="17" ht="14.25" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
@@ -6146,7 +6405,7 @@
     </row>
     <row r="18" ht="14.25" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
@@ -6166,7 +6425,7 @@
     </row>
     <row r="20" ht="14.25" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
@@ -6180,13 +6439,13 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="4" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" ht="14.25" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="1" t="s">
@@ -6196,7 +6455,7 @@
     </row>
     <row r="23" ht="14.25" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
@@ -6206,7 +6465,7 @@
     </row>
     <row r="24" ht="14.25" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="1" t="s">
@@ -6216,7 +6475,7 @@
     </row>
     <row r="25" ht="14.25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="1" t="s">
@@ -6236,17 +6495,17 @@
     </row>
     <row r="27" ht="14.25" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="4" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" ht="14.25" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="1" t="s">
@@ -6256,7 +6515,7 @@
     </row>
     <row r="29" ht="14.25" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="1" t="s">
@@ -6270,19 +6529,117 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="1" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" ht="14.25" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="4" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="D31" s="2"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:4">
+      <c r="A32" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:3">
+      <c r="A33" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:3">
+      <c r="A34" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:3">
+      <c r="A35" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:3">
+      <c r="A36" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>364</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:3">
+      <c r="A38" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:3">
+      <c r="A39" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>368</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:3">
+      <c r="A41" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:3">
+      <c r="A42" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:3">
+      <c r="A43" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>374</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/doc/EBMlog.xlsx
+++ b/doc/EBMlog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19875" windowHeight="7515" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="14835" windowHeight="5220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="刘士卿" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,13 @@
     <sheet name="彭瑶瑶" sheetId="6" r:id="rId6"/>
     <sheet name="张国豪" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A37:M53"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="378">
   <si>
     <t>提交时间</t>
   </si>
@@ -45,7 +46,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.</t>
     </r>
@@ -54,7 +55,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -63,7 +64,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -83,7 +84,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.</t>
     </r>
@@ -92,7 +93,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -101,7 +102,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -121,7 +122,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.</t>
     </r>
@@ -130,7 +131,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -139,7 +140,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -159,7 +160,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.1</t>
     </r>
@@ -168,7 +169,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -177,7 +178,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -197,7 +198,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.1</t>
     </r>
@@ -206,7 +207,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -215,7 +216,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -235,7 +236,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.17</t>
     </r>
@@ -244,7 +245,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -264,7 +265,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.19</t>
     </r>
@@ -273,7 +274,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -293,7 +294,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.23</t>
     </r>
@@ -302,7 +303,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -316,7 +317,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.24</t>
     </r>
@@ -325,7 +326,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -339,7 +340,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.25</t>
     </r>
@@ -348,7 +349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -362,7 +363,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.26</t>
     </r>
@@ -371,7 +372,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -385,7 +386,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.29</t>
     </r>
@@ -394,7 +395,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -408,7 +409,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.30</t>
     </r>
@@ -417,7 +418,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -431,7 +432,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -440,7 +441,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.1</t>
     </r>
@@ -449,7 +450,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -463,7 +464,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -472,7 +473,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.2</t>
     </r>
@@ -481,7 +482,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -501,7 +502,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -510,7 +511,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.6</t>
     </r>
@@ -519,7 +520,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -533,7 +534,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -542,7 +543,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.7</t>
     </r>
@@ -551,7 +552,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -571,7 +572,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -580,7 +581,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.9</t>
     </r>
@@ -589,7 +590,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -609,7 +610,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -618,7 +619,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.13</t>
     </r>
@@ -627,7 +628,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -641,7 +642,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -650,7 +651,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.14</t>
     </r>
@@ -659,7 +660,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -841,7 +842,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5.16-17</t>
     </r>
@@ -859,7 +860,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00-21</t>
     </r>
@@ -877,7 +878,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00</t>
     </r>
@@ -891,7 +892,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5.17-15</t>
     </r>
@@ -909,7 +910,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00-19</t>
     </r>
@@ -927,7 +928,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00</t>
     </r>
@@ -950,7 +951,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.</t>
     </r>
@@ -959,7 +960,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -968,7 +969,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -982,7 +983,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.</t>
     </r>
@@ -991,7 +992,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>8</t>
     </r>
@@ -1000,7 +1001,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -1014,7 +1015,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.1</t>
     </r>
@@ -1023,7 +1024,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -1032,7 +1033,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -1055,7 +1056,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.22</t>
     </r>
@@ -1064,7 +1065,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -1087,7 +1088,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -1096,7 +1097,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.3</t>
     </r>
@@ -1105,7 +1106,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -1119,7 +1120,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -1128,7 +1129,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.8</t>
     </r>
@@ -1137,7 +1138,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -1151,7 +1152,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -1160,7 +1161,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.10</t>
     </r>
@@ -1169,7 +1170,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-20:00-22:00</t>
     </r>
@@ -1288,7 +1289,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>gitbase</t>
     </r>
@@ -1425,7 +1426,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">maven </t>
     </r>
@@ -1463,7 +1464,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2019-4-09-20</t>
     </r>
@@ -1481,7 +1482,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00</t>
     </r>
@@ -1495,7 +1496,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2019-4-10-20</t>
     </r>
@@ -1513,7 +1514,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00</t>
     </r>
@@ -1530,7 +1531,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>pom</t>
     </r>
@@ -1550,7 +1551,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2019-4-12-20</t>
     </r>
@@ -1568,7 +1569,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00</t>
     </r>
@@ -1585,7 +1586,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>pom</t>
     </r>
@@ -1605,7 +1606,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2019-4-14-20</t>
     </r>
@@ -1623,7 +1624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00</t>
     </r>
@@ -1664,7 +1665,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>pom</t>
     </r>
@@ -1684,7 +1685,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2019-4-25-15</t>
     </r>
@@ -1702,7 +1703,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00</t>
     </r>
@@ -1728,7 +1729,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2019-5-1-21</t>
     </r>
@@ -1746,7 +1747,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00</t>
     </r>
@@ -1760,7 +1761,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2019-5-2-20</t>
     </r>
@@ -1778,7 +1779,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00</t>
     </r>
@@ -1795,7 +1796,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>maven</t>
     </r>
@@ -1821,7 +1822,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2019-5-9-15</t>
     </r>
@@ -1839,7 +1840,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00</t>
     </r>
@@ -1865,7 +1866,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>web</t>
     </r>
@@ -1885,7 +1886,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2019-5-12-20</t>
     </r>
@@ -1903,7 +1904,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00</t>
     </r>
@@ -1914,7 +1915,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>web</t>
     </r>
@@ -2099,7 +2100,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">maven </t>
     </r>
@@ -2128,7 +2129,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2019-4-12-20</t>
     </r>
@@ -2146,7 +2147,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00</t>
     </r>
@@ -2157,7 +2158,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2019-4-13-20</t>
     </r>
@@ -2175,7 +2176,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00</t>
     </r>
@@ -2186,7 +2187,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>pom</t>
     </r>
@@ -2206,7 +2207,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2019-4-17-20</t>
     </r>
@@ -2224,7 +2225,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00</t>
     </r>
@@ -2238,7 +2239,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>pom</t>
     </r>
@@ -2258,7 +2259,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2019-4-19-20</t>
     </r>
@@ -2276,7 +2277,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00</t>
     </r>
@@ -2296,7 +2297,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>pom</t>
     </r>
@@ -2331,7 +2332,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>maven</t>
     </r>
@@ -2366,7 +2367,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>web</t>
     </r>
@@ -2389,7 +2390,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>web</t>
     </r>
@@ -2412,7 +2413,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>web</t>
     </r>
@@ -2500,19 +2501,25 @@
   </si>
   <si>
     <t>写web层</t>
+  </si>
+  <si>
+    <t>2019-5-30-20:00</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-25-20：00</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-27-20：00</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2529,24 +2536,24 @@
     <font>
       <sz val="11"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2563,7 +2570,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2581,7 +2588,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2597,151 +2604,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2754,194 +2623,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2964,255 +2647,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -3293,79 +2734,32 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="54" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="54"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="52" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="53"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="52" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="常规 2 3" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
-    <cellStyle name="常规 2 4" xfId="51"/>
-    <cellStyle name="常规 3" xfId="52"/>
-    <cellStyle name="常规 4" xfId="53"/>
-    <cellStyle name="常规 2" xfId="54"/>
+    <cellStyle name="常规 2" xfId="6"/>
+    <cellStyle name="常规 2 2" xfId="1"/>
+    <cellStyle name="常规 2 3" xfId="2"/>
+    <cellStyle name="常规 2 4" xfId="3"/>
+    <cellStyle name="常规 3" xfId="4"/>
+    <cellStyle name="常规 4" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3654,21 +3048,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
+    <row r="1" spans="1:7" ht="14.25">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -3680,7 +3074,7 @@
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
     </row>
-    <row r="2" ht="14.25" spans="1:7">
+    <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
@@ -3692,7 +3086,7 @@
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
     </row>
-    <row r="3" ht="14.25" spans="1:7">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
@@ -3704,7 +3098,7 @@
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
     </row>
-    <row r="4" ht="14.25" spans="1:7">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="43" t="s">
         <v>6</v>
       </c>
@@ -3716,7 +3110,7 @@
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
     </row>
-    <row r="5" ht="14.25" spans="1:7">
+    <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="43" t="s">
         <v>8</v>
       </c>
@@ -3728,7 +3122,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" ht="14.25" spans="1:7">
+    <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="43" t="s">
         <v>10</v>
       </c>
@@ -3740,7 +3134,7 @@
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
     </row>
-    <row r="7" ht="14.25" spans="1:7">
+    <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="43" t="s">
         <v>12</v>
       </c>
@@ -3752,7 +3146,7 @@
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" ht="14.25" spans="1:7">
+    <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="43" t="s">
         <v>14</v>
       </c>
@@ -3764,7 +3158,7 @@
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
     </row>
-    <row r="9" ht="14.25" spans="1:7">
+    <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="43" t="s">
         <v>16</v>
       </c>
@@ -3776,7 +3170,7 @@
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
     </row>
-    <row r="10" ht="14.25" spans="1:7">
+    <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="43" t="s">
         <v>18</v>
       </c>
@@ -3788,7 +3182,7 @@
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
     </row>
-    <row r="11" ht="14.25" spans="1:7">
+    <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="43" t="s">
         <v>20</v>
       </c>
@@ -3800,7 +3194,7 @@
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
     </row>
-    <row r="12" ht="14.25" spans="1:7">
+    <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="43" t="s">
         <v>22</v>
       </c>
@@ -3812,7 +3206,7 @@
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
     </row>
-    <row r="13" ht="14.25" spans="1:7">
+    <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="43" t="s">
         <v>24</v>
       </c>
@@ -3824,7 +3218,7 @@
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
     </row>
-    <row r="14" ht="14.25" spans="1:7">
+    <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="43" t="s">
         <v>26</v>
       </c>
@@ -3836,7 +3230,7 @@
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
     </row>
-    <row r="15" ht="14.25" spans="1:7">
+    <row r="15" spans="1:7" ht="14.25">
       <c r="A15" s="43" t="s">
         <v>28</v>
       </c>
@@ -3848,7 +3242,7 @@
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
     </row>
-    <row r="16" ht="14.25" spans="1:7">
+    <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="43" t="s">
         <v>30</v>
       </c>
@@ -3860,7 +3254,7 @@
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" ht="14.25" spans="1:3">
+    <row r="17" spans="1:3" ht="14.25">
       <c r="A17" s="43" t="s">
         <v>32</v>
       </c>
@@ -3868,7 +3262,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:3">
+    <row r="18" spans="1:3" ht="14.25">
       <c r="A18" s="43" t="s">
         <v>34</v>
       </c>
@@ -3876,7 +3270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:3">
+    <row r="19" spans="1:3" ht="14.25">
       <c r="A19" s="43" t="s">
         <v>36</v>
       </c>
@@ -3884,7 +3278,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:3">
+    <row r="20" spans="1:3" ht="14.25">
       <c r="A20" s="43" t="s">
         <v>38</v>
       </c>
@@ -3892,7 +3286,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:3">
+    <row r="21" spans="1:3" ht="14.25">
       <c r="A21" s="43" t="s">
         <v>40</v>
       </c>
@@ -3900,7 +3294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:3">
+    <row r="22" spans="1:3" ht="14.25">
       <c r="A22" s="43" t="s">
         <v>42</v>
       </c>
@@ -3908,7 +3302,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:3">
+    <row r="23" spans="1:3" ht="14.25">
       <c r="A23" s="43" t="s">
         <v>44</v>
       </c>
@@ -3916,7 +3310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:3">
+    <row r="24" spans="1:3" ht="14.25">
       <c r="A24" s="43" t="s">
         <v>46</v>
       </c>
@@ -3924,7 +3318,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:3">
+    <row r="25" spans="1:3" ht="14.25">
       <c r="A25" s="43" t="s">
         <v>48</v>
       </c>
@@ -3932,7 +3326,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:3">
+    <row r="26" spans="1:3" ht="14.25">
       <c r="A26" s="43" t="s">
         <v>50</v>
       </c>
@@ -3940,7 +3334,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:3">
+    <row r="27" spans="1:3" ht="14.25">
       <c r="A27" s="43" t="s">
         <v>52</v>
       </c>
@@ -3948,7 +3342,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:3">
+    <row r="28" spans="1:3" ht="14.25">
       <c r="A28" s="43" t="s">
         <v>54</v>
       </c>
@@ -3956,7 +3350,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:3">
+    <row r="29" spans="1:3" ht="14.25">
       <c r="A29" s="43" t="s">
         <v>56</v>
       </c>
@@ -3964,7 +3358,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:3">
+    <row r="30" spans="1:3" ht="14.25">
       <c r="A30" s="43" t="s">
         <v>58</v>
       </c>
@@ -3972,7 +3366,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:3">
+    <row r="31" spans="1:3" ht="14.25">
       <c r="A31" s="43" t="s">
         <v>60</v>
       </c>
@@ -3980,7 +3374,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:3">
+    <row r="32" spans="1:3" ht="14.25">
       <c r="A32" s="43" t="s">
         <v>62</v>
       </c>
@@ -3988,7 +3382,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:3">
+    <row r="33" spans="1:3" ht="14.25">
       <c r="A33" s="43" t="s">
         <v>64</v>
       </c>
@@ -3996,7 +3390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:3">
+    <row r="34" spans="1:3" ht="14.25">
       <c r="A34" s="43" t="s">
         <v>66</v>
       </c>
@@ -4082,21 +3476,20 @@
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
@@ -4108,7 +3501,7 @@
       </c>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="13" t="s">
         <v>86</v>
       </c>
@@ -4118,7 +3511,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="13" t="s">
         <v>87</v>
       </c>
@@ -4128,7 +3521,7 @@
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="13" t="s">
         <v>89</v>
       </c>
@@ -4138,7 +3531,7 @@
       </c>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="13" t="s">
         <v>91</v>
       </c>
@@ -4148,7 +3541,7 @@
       </c>
       <c r="D5" s="13"/>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="13" t="s">
         <v>92</v>
       </c>
@@ -4158,7 +3551,7 @@
       </c>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" ht="14.25" spans="1:4">
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="13" t="s">
         <v>93</v>
       </c>
@@ -4168,7 +3561,7 @@
       </c>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" ht="14.25" spans="1:4">
+    <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="13" t="s">
         <v>94</v>
       </c>
@@ -4178,7 +3571,7 @@
       </c>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" ht="14.25" spans="1:4">
+    <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="13" t="s">
         <v>95</v>
       </c>
@@ -4188,7 +3581,7 @@
       </c>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="13" t="s">
         <v>96</v>
       </c>
@@ -4198,7 +3591,7 @@
       </c>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" ht="14.25" spans="1:4">
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -4208,7 +3601,7 @@
       </c>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" ht="14.25" spans="1:4">
+    <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="13" t="s">
         <v>97</v>
       </c>
@@ -4218,7 +3611,7 @@
       </c>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" ht="14.25" spans="1:4">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="13" t="s">
         <v>98</v>
       </c>
@@ -4228,7 +3621,7 @@
       </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" ht="14.25" spans="1:4">
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="13" t="s">
         <v>99</v>
       </c>
@@ -4238,7 +3631,7 @@
       </c>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" ht="14.25" spans="1:4">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="13" t="s">
         <v>100</v>
       </c>
@@ -4248,7 +3641,7 @@
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" ht="14.25" spans="1:4">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="13" t="s">
         <v>101</v>
       </c>
@@ -4258,7 +3651,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" ht="14.25" spans="1:4">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="13" t="s">
         <v>102</v>
       </c>
@@ -4268,7 +3661,7 @@
       </c>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" ht="14.25" spans="1:4">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="13" t="s">
         <v>103</v>
       </c>
@@ -4278,7 +3671,7 @@
       </c>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" ht="14.25" spans="1:4">
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="13" t="s">
         <v>104</v>
       </c>
@@ -4288,7 +3681,7 @@
       </c>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" ht="14.25" spans="1:4">
+    <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="13" t="s">
         <v>105</v>
       </c>
@@ -4298,7 +3691,7 @@
       </c>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" ht="14.25" spans="1:4">
+    <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="13" t="s">
         <v>106</v>
       </c>
@@ -4308,7 +3701,7 @@
       </c>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" ht="14.25" spans="1:4">
+    <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="13" t="s">
         <v>107</v>
       </c>
@@ -4318,7 +3711,7 @@
       </c>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" ht="14.25" spans="1:4">
+    <row r="23" spans="1:4" ht="14.25">
       <c r="A23" s="13" t="s">
         <v>108</v>
       </c>
@@ -4328,7 +3721,7 @@
       </c>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" ht="14.25" spans="1:4">
+    <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="13" t="s">
         <v>109</v>
       </c>
@@ -4338,7 +3731,7 @@
       </c>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" ht="14.25" spans="1:4">
+    <row r="25" spans="1:4" ht="14.25">
       <c r="A25" s="13" t="s">
         <v>110</v>
       </c>
@@ -4348,7 +3741,7 @@
       </c>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" ht="14.25" spans="1:4">
+    <row r="26" spans="1:4" ht="14.25">
       <c r="A26" s="13" t="s">
         <v>111</v>
       </c>
@@ -4358,7 +3751,7 @@
       </c>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" ht="14.25" spans="1:4">
+    <row r="27" spans="1:4" ht="14.25">
       <c r="A27" s="13" t="s">
         <v>112</v>
       </c>
@@ -4368,7 +3761,7 @@
       </c>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" ht="14.25" spans="1:4">
+    <row r="28" spans="1:4" ht="14.25">
       <c r="A28" s="13" t="s">
         <v>113</v>
       </c>
@@ -4378,7 +3771,7 @@
       </c>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" ht="14.25" spans="1:4">
+    <row r="29" spans="1:4" ht="14.25">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -4388,7 +3781,7 @@
       </c>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" ht="14.25" spans="1:4">
+    <row r="30" spans="1:4" ht="14.25">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -4398,7 +3791,7 @@
       </c>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" ht="14.25" spans="1:4">
+    <row r="31" spans="1:4" ht="14.25">
       <c r="A31" s="13" t="s">
         <v>116</v>
       </c>
@@ -4408,7 +3801,7 @@
       </c>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" ht="14.25" spans="1:4">
+    <row r="32" spans="1:4" ht="14.25">
       <c r="A32" s="13" t="s">
         <v>117</v>
       </c>
@@ -4418,7 +3811,7 @@
       </c>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" ht="14.25" spans="1:4">
+    <row r="33" spans="1:4" ht="14.25">
       <c r="A33" s="13" t="s">
         <v>118</v>
       </c>
@@ -4428,7 +3821,7 @@
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" ht="16.5" spans="1:4">
+    <row r="34" spans="1:4" ht="16.5">
       <c r="A34" s="15" t="s">
         <v>120</v>
       </c>
@@ -4438,7 +3831,7 @@
       </c>
       <c r="D34" s="18"/>
     </row>
-    <row r="35" ht="16.5" spans="1:4">
+    <row r="35" spans="1:4" ht="16.5">
       <c r="A35" s="15" t="s">
         <v>122</v>
       </c>
@@ -4448,7 +3841,7 @@
       </c>
       <c r="D35" s="18"/>
     </row>
-    <row r="36" ht="16.5" spans="1:4">
+    <row r="36" spans="1:4" ht="16.5">
       <c r="A36" s="15" t="s">
         <v>124</v>
       </c>
@@ -4460,24 +3853,91 @@
         <v>126</v>
       </c>
     </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="C40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C41" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5">
+      <c r="A42" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43" spans="1:4" ht="16.5">
+      <c r="A43" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>375</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -4487,7 +3947,7 @@
       </c>
       <c r="D1" s="36"/>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="37" t="s">
         <v>86</v>
       </c>
@@ -4497,7 +3957,7 @@
       </c>
       <c r="D2" s="36"/>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="37" t="s">
         <v>128</v>
       </c>
@@ -4507,7 +3967,7 @@
       </c>
       <c r="D3" s="36"/>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="37" t="s">
         <v>6</v>
       </c>
@@ -4517,7 +3977,7 @@
       </c>
       <c r="D4" s="36"/>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="37" t="s">
         <v>129</v>
       </c>
@@ -4527,7 +3987,7 @@
       </c>
       <c r="D5" s="36"/>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="37" t="s">
         <v>130</v>
       </c>
@@ -4537,7 +3997,7 @@
       </c>
       <c r="D6" s="36"/>
     </row>
-    <row r="7" ht="14.25" spans="1:4">
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="37" t="s">
         <v>131</v>
       </c>
@@ -4547,7 +4007,7 @@
       </c>
       <c r="D7" s="36"/>
     </row>
-    <row r="8" ht="14.25" spans="1:4">
+    <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="37" t="s">
         <v>132</v>
       </c>
@@ -4557,7 +4017,7 @@
       </c>
       <c r="D8" s="36"/>
     </row>
-    <row r="9" ht="14.25" spans="1:4">
+    <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="37" t="s">
         <v>133</v>
       </c>
@@ -4567,7 +4027,7 @@
       </c>
       <c r="D9" s="36"/>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
@@ -4577,7 +4037,7 @@
       </c>
       <c r="D10" s="36"/>
     </row>
-    <row r="11" ht="14.25" spans="1:4">
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="37" t="s">
         <v>134</v>
       </c>
@@ -4587,7 +4047,7 @@
       </c>
       <c r="D11" s="36"/>
     </row>
-    <row r="12" ht="14.25" spans="1:4">
+    <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
@@ -4597,7 +4057,7 @@
       </c>
       <c r="D12" s="36"/>
     </row>
-    <row r="13" ht="14.25" spans="1:4">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="37" t="s">
         <v>135</v>
       </c>
@@ -4607,7 +4067,7 @@
       </c>
       <c r="D13" s="36"/>
     </row>
-    <row r="14" ht="14.25" spans="1:4">
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="37" t="s">
         <v>26</v>
       </c>
@@ -4617,7 +4077,7 @@
       </c>
       <c r="D14" s="36"/>
     </row>
-    <row r="15" ht="14.25" spans="1:4">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="37" t="s">
         <v>136</v>
       </c>
@@ -4627,7 +4087,7 @@
       </c>
       <c r="D15" s="36"/>
     </row>
-    <row r="16" ht="14.25" spans="1:4">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="37" t="s">
         <v>30</v>
       </c>
@@ -4637,7 +4097,7 @@
       </c>
       <c r="D16" s="36"/>
     </row>
-    <row r="17" ht="14.25" spans="1:4">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="37" t="s">
         <v>138</v>
       </c>
@@ -4647,7 +4107,7 @@
       </c>
       <c r="D17" s="36"/>
     </row>
-    <row r="18" ht="14.25" spans="1:4">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="37" t="s">
         <v>140</v>
       </c>
@@ -4657,7 +4117,7 @@
       </c>
       <c r="D18" s="36"/>
     </row>
-    <row r="19" ht="14.25" spans="1:4">
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
@@ -4667,7 +4127,7 @@
       </c>
       <c r="D19" s="36"/>
     </row>
-    <row r="20" ht="14.25" spans="1:4">
+    <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="37" t="s">
         <v>38</v>
       </c>
@@ -4677,7 +4137,7 @@
       </c>
       <c r="D20" s="36"/>
     </row>
-    <row r="21" ht="14.25" spans="1:4">
+    <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="37" t="s">
         <v>141</v>
       </c>
@@ -4687,7 +4147,7 @@
       </c>
       <c r="D21" s="36"/>
     </row>
-    <row r="22" ht="14.25" spans="1:4">
+    <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="37" t="s">
         <v>42</v>
       </c>
@@ -4697,7 +4157,7 @@
       </c>
       <c r="D22" s="36"/>
     </row>
-    <row r="23" ht="14.25" spans="1:4">
+    <row r="23" spans="1:4" ht="14.25">
       <c r="A23" s="37" t="s">
         <v>44</v>
       </c>
@@ -4707,7 +4167,7 @@
       </c>
       <c r="D23" s="36"/>
     </row>
-    <row r="24" ht="14.25" spans="1:4">
+    <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="37" t="s">
         <v>46</v>
       </c>
@@ -4717,7 +4177,7 @@
       </c>
       <c r="D24" s="36"/>
     </row>
-    <row r="25" ht="14.25" spans="1:4">
+    <row r="25" spans="1:4" ht="14.25">
       <c r="A25" s="37" t="s">
         <v>48</v>
       </c>
@@ -4727,7 +4187,7 @@
       </c>
       <c r="D25" s="36"/>
     </row>
-    <row r="26" ht="14.25" spans="1:4">
+    <row r="26" spans="1:4" ht="14.25">
       <c r="A26" s="37" t="s">
         <v>143</v>
       </c>
@@ -4737,7 +4197,7 @@
       </c>
       <c r="D26" s="36"/>
     </row>
-    <row r="27" ht="14.25" spans="1:4">
+    <row r="27" spans="1:4" ht="14.25">
       <c r="A27" s="37" t="s">
         <v>52</v>
       </c>
@@ -4747,7 +4207,7 @@
       </c>
       <c r="D27" s="36"/>
     </row>
-    <row r="28" ht="14.25" spans="1:4">
+    <row r="28" spans="1:4" ht="14.25">
       <c r="A28" s="37" t="s">
         <v>144</v>
       </c>
@@ -4757,7 +4217,7 @@
       </c>
       <c r="D28" s="36"/>
     </row>
-    <row r="29" ht="14.25" spans="1:4">
+    <row r="29" spans="1:4" ht="14.25">
       <c r="A29" s="37" t="s">
         <v>145</v>
       </c>
@@ -4767,7 +4227,7 @@
       </c>
       <c r="D29" s="36"/>
     </row>
-    <row r="30" ht="14.25" spans="1:4">
+    <row r="30" spans="1:4" ht="14.25">
       <c r="A30" s="37" t="s">
         <v>58</v>
       </c>
@@ -4777,7 +4237,7 @@
       </c>
       <c r="D30" s="36"/>
     </row>
-    <row r="31" ht="14.25" spans="1:4">
+    <row r="31" spans="1:4" ht="14.25">
       <c r="A31" s="37" t="s">
         <v>147</v>
       </c>
@@ -4787,7 +4247,7 @@
       </c>
       <c r="D31" s="36"/>
     </row>
-    <row r="32" ht="14.25" spans="1:4">
+    <row r="32" spans="1:4" ht="14.25">
       <c r="A32" s="37" t="s">
         <v>148</v>
       </c>
@@ -4797,7 +4257,7 @@
       </c>
       <c r="D32" s="36"/>
     </row>
-    <row r="33" ht="14.25" spans="1:4">
+    <row r="33" spans="1:4" ht="14.25">
       <c r="A33" s="37" t="s">
         <v>64</v>
       </c>
@@ -4807,7 +4267,7 @@
       </c>
       <c r="D33" s="36"/>
     </row>
-    <row r="34" ht="16.5" spans="1:4">
+    <row r="34" spans="1:4" ht="16.5">
       <c r="A34" s="15" t="s">
         <v>151</v>
       </c>
@@ -4817,7 +4277,7 @@
       </c>
       <c r="D34" s="18"/>
     </row>
-    <row r="35" ht="16.5" spans="1:4">
+    <row r="35" spans="1:4" ht="16.5">
       <c r="A35" s="15" t="s">
         <v>153</v>
       </c>
@@ -4827,7 +4287,7 @@
       </c>
       <c r="D35" s="18"/>
     </row>
-    <row r="36" ht="16.5" spans="1:4">
+    <row r="36" spans="1:4" ht="16.5">
       <c r="A36" s="15" t="s">
         <v>155</v>
       </c>
@@ -4837,7 +4297,7 @@
       </c>
       <c r="D36" s="18"/>
     </row>
-    <row r="37" ht="16.5" spans="1:4">
+    <row r="37" spans="1:4" ht="16.5">
       <c r="A37" s="15" t="s">
         <v>157</v>
       </c>
@@ -4847,7 +4307,7 @@
       </c>
       <c r="D37" s="18"/>
     </row>
-    <row r="38" ht="16.5" spans="1:4">
+    <row r="38" spans="1:4" ht="16.5">
       <c r="A38" s="15" t="s">
         <v>159</v>
       </c>
@@ -4857,7 +4317,7 @@
       </c>
       <c r="D38" s="18"/>
     </row>
-    <row r="39" ht="16.5" spans="1:4">
+    <row r="39" spans="1:4" ht="16.5">
       <c r="A39" s="15" t="s">
         <v>161</v>
       </c>
@@ -4867,7 +4327,7 @@
       </c>
       <c r="D39" s="18"/>
     </row>
-    <row r="40" ht="16.5" spans="1:4">
+    <row r="40" spans="1:4" ht="16.5">
       <c r="A40" s="15" t="s">
         <v>163</v>
       </c>
@@ -4877,7 +4337,7 @@
       </c>
       <c r="D40" s="18"/>
     </row>
-    <row r="41" ht="16.5" spans="1:4">
+    <row r="41" spans="1:4" ht="16.5">
       <c r="A41" s="15" t="s">
         <v>165</v>
       </c>
@@ -4887,7 +4347,7 @@
       </c>
       <c r="D41" s="18"/>
     </row>
-    <row r="42" ht="16.5" spans="1:4">
+    <row r="42" spans="1:4" ht="16.5">
       <c r="A42" s="15" t="s">
         <v>167</v>
       </c>
@@ -4897,7 +4357,7 @@
       </c>
       <c r="D42" s="18"/>
     </row>
-    <row r="43" ht="16.5" spans="1:4">
+    <row r="43" spans="1:4" ht="16.5">
       <c r="A43" s="15" t="s">
         <v>169</v>
       </c>
@@ -4907,7 +4367,7 @@
       </c>
       <c r="D43" s="18"/>
     </row>
-    <row r="44" ht="16.5" spans="1:4">
+    <row r="44" spans="1:4" ht="16.5">
       <c r="A44" s="15" t="s">
         <v>171</v>
       </c>
@@ -4915,7 +4375,7 @@
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
     </row>
-    <row r="45" ht="16.5" spans="1:4">
+    <row r="45" spans="1:4" ht="16.5">
       <c r="A45" s="15" t="s">
         <v>172</v>
       </c>
@@ -4924,24 +4384,23 @@
       <c r="D45" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C43" r:id="rId1" display="学习requstMapping请求" tooltip="mailto:学习@requstMapping请求"/>
+    <hyperlink ref="C43" r:id="rId1" tooltip="mailto:学习@requstMapping请求"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="24" t="s">
@@ -4951,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="162" spans="1:3">
+    <row r="2" spans="1:3" ht="162.75">
       <c r="A2" s="25" t="s">
         <v>174</v>
       </c>
@@ -4960,7 +4419,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:3">
+    <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="25" t="s">
         <v>176</v>
       </c>
@@ -4969,7 +4428,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
+    <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="25" t="s">
         <v>178</v>
       </c>
@@ -4978,7 +4437,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="25" t="s">
         <v>180</v>
       </c>
@@ -4987,7 +4446,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:3">
+    <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="25" t="s">
         <v>182</v>
       </c>
@@ -4996,7 +4455,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:3">
+    <row r="7" spans="1:3" ht="14.25">
       <c r="A7" s="25" t="s">
         <v>93</v>
       </c>
@@ -5005,7 +4464,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:3">
+    <row r="8" spans="1:3" ht="14.25">
       <c r="A8" s="25" t="s">
         <v>94</v>
       </c>
@@ -5014,7 +4473,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:3">
+    <row r="9" spans="1:3" ht="14.25">
       <c r="A9" s="25" t="s">
         <v>95</v>
       </c>
@@ -5023,7 +4482,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:3">
+    <row r="10" spans="1:3" ht="14.25">
       <c r="A10" s="25" t="s">
         <v>96</v>
       </c>
@@ -5032,7 +4491,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:3">
+    <row r="11" spans="1:3" ht="14.25">
       <c r="A11" s="25" t="s">
         <v>20</v>
       </c>
@@ -5041,7 +4500,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3" ht="14.25">
       <c r="A12" s="25" t="s">
         <v>97</v>
       </c>
@@ -5050,7 +4509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:3">
+    <row r="13" spans="1:3" ht="14.25">
       <c r="A13" s="25" t="s">
         <v>98</v>
       </c>
@@ -5059,7 +4518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:3">
+    <row r="14" spans="1:3" ht="14.25">
       <c r="A14" s="25" t="s">
         <v>99</v>
       </c>
@@ -5068,7 +4527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:3">
+    <row r="15" spans="1:3" ht="14.25">
       <c r="A15" s="25" t="s">
         <v>100</v>
       </c>
@@ -5077,7 +4536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:3">
+    <row r="16" spans="1:3" ht="14.25">
       <c r="A16" s="25" t="s">
         <v>101</v>
       </c>
@@ -5086,7 +4545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:3">
+    <row r="17" spans="1:3" ht="14.25">
       <c r="A17" s="25" t="s">
         <v>102</v>
       </c>
@@ -5095,7 +4554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:3">
+    <row r="18" spans="1:3" ht="14.25">
       <c r="A18" s="25" t="s">
         <v>103</v>
       </c>
@@ -5104,7 +4563,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:3">
+    <row r="19" spans="1:3" ht="14.25">
       <c r="A19" s="25" t="s">
         <v>104</v>
       </c>
@@ -5113,7 +4572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:3">
+    <row r="20" spans="1:3" ht="14.25">
       <c r="A20" s="25" t="s">
         <v>105</v>
       </c>
@@ -5122,7 +4581,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:3">
+    <row r="21" spans="1:3" ht="14.25">
       <c r="A21" s="25" t="s">
         <v>106</v>
       </c>
@@ -5131,7 +4590,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:3">
+    <row r="22" spans="1:3" ht="14.25">
       <c r="A22" s="25" t="s">
         <v>107</v>
       </c>
@@ -5140,7 +4599,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:3">
+    <row r="23" spans="1:3" ht="14.25">
       <c r="A23" s="25" t="s">
         <v>108</v>
       </c>
@@ -5149,7 +4608,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:3">
+    <row r="24" spans="1:3" ht="14.25">
       <c r="A24" s="25" t="s">
         <v>109</v>
       </c>
@@ -5158,7 +4617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:3">
+    <row r="25" spans="1:3" ht="14.25">
       <c r="A25" s="25" t="s">
         <v>188</v>
       </c>
@@ -5167,7 +4626,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:3">
+    <row r="26" spans="1:3" ht="14.25">
       <c r="A26" s="25" t="s">
         <v>113</v>
       </c>
@@ -5176,7 +4635,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:3">
+    <row r="27" spans="1:3" ht="14.25">
       <c r="A27" s="25" t="s">
         <v>115</v>
       </c>
@@ -5185,7 +4644,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:3">
+    <row r="28" spans="1:3" ht="14.25">
       <c r="A28" s="25" t="s">
         <v>116</v>
       </c>
@@ -5194,7 +4653,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:3">
+    <row r="29" spans="1:3" ht="14.25">
       <c r="A29" s="25" t="s">
         <v>190</v>
       </c>
@@ -5203,7 +4662,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:3">
+    <row r="30" spans="1:3" ht="14.25">
       <c r="A30" s="25" t="s">
         <v>191</v>
       </c>
@@ -5212,7 +4671,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:3">
+    <row r="31" spans="1:3" ht="14.25">
       <c r="A31" s="25" t="s">
         <v>117</v>
       </c>
@@ -5221,7 +4680,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:3">
+    <row r="32" spans="1:3" ht="14.25">
       <c r="A32" s="25" t="s">
         <v>118</v>
       </c>
@@ -5230,7 +4689,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:3">
+    <row r="33" spans="1:3" ht="14.25">
       <c r="A33" s="31" t="s">
         <v>193</v>
       </c>
@@ -5239,7 +4698,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:3">
+    <row r="34" spans="1:3" ht="16.5">
       <c r="A34" s="33" t="s">
         <v>195</v>
       </c>
@@ -5248,7 +4707,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:3">
+    <row r="35" spans="1:3" ht="16.5">
       <c r="A35" s="33" t="s">
         <v>197</v>
       </c>
@@ -5257,7 +4716,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:3">
+    <row r="36" spans="1:3" ht="16.5">
       <c r="A36" s="33" t="s">
         <v>199</v>
       </c>
@@ -5266,7 +4725,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:3">
+    <row r="37" spans="1:3" ht="16.5">
       <c r="A37" s="33" t="s">
         <v>201</v>
       </c>
@@ -5275,7 +4734,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:3">
+    <row r="38" spans="1:3" ht="16.5">
       <c r="A38" s="33" t="s">
         <v>203</v>
       </c>
@@ -5284,7 +4743,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:3">
+    <row r="39" spans="1:3" ht="16.5">
       <c r="A39" s="33" t="s">
         <v>205</v>
       </c>
@@ -5293,7 +4752,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:3">
+    <row r="40" spans="1:3" ht="16.5">
       <c r="A40" s="32" t="s">
         <v>207</v>
       </c>
@@ -5302,7 +4761,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:3">
+    <row r="41" spans="1:3" ht="16.5">
       <c r="A41" s="32" t="s">
         <v>209</v>
       </c>
@@ -5311,7 +4770,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:3">
+    <row r="42" spans="1:3" ht="16.5">
       <c r="A42" s="32" t="s">
         <v>211</v>
       </c>
@@ -5320,7 +4779,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:3">
+    <row r="43" spans="1:3" ht="16.5">
       <c r="A43" s="32" t="s">
         <v>213</v>
       </c>
@@ -5329,7 +4788,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:3">
+    <row r="44" spans="1:3" ht="16.5">
       <c r="A44" s="32" t="s">
         <v>215</v>
       </c>
@@ -5339,23 +4798,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:E45"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" spans="1:5" ht="14.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -5366,7 +4824,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" ht="14.25" spans="1:5">
+    <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="21" t="s">
         <v>217</v>
       </c>
@@ -5377,14 +4835,14 @@
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
+    <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" ht="14.25" spans="1:5">
+    <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="20" t="s">
         <v>219</v>
       </c>
@@ -5395,14 +4853,14 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" ht="14.25" spans="1:5">
+    <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
     </row>
-    <row r="6" ht="14.25" spans="1:5">
+    <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="20" t="s">
         <v>221</v>
       </c>
@@ -5413,14 +4871,14 @@
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" ht="14.25" spans="1:5">
+    <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" ht="14.25" spans="1:5">
+    <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="20" t="s">
         <v>223</v>
       </c>
@@ -5431,14 +4889,14 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" ht="14.25" spans="1:5">
+    <row r="9" spans="1:5" ht="14.25">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" ht="14.25" spans="1:5">
+    <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="20" t="s">
         <v>225</v>
       </c>
@@ -5449,14 +4907,14 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" ht="14.25" spans="1:5">
+    <row r="11" spans="1:5" ht="14.25">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" ht="14.25" spans="1:5">
+    <row r="12" spans="1:5" ht="14.25">
       <c r="A12" s="20" t="s">
         <v>227</v>
       </c>
@@ -5467,7 +4925,7 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" ht="14.25" spans="1:5">
+    <row r="13" spans="1:5" ht="14.25">
       <c r="A13" s="20" t="s">
         <v>229</v>
       </c>
@@ -5478,7 +4936,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" ht="14.25" spans="1:5">
+    <row r="14" spans="1:5" ht="14.25">
       <c r="A14" s="22" t="s">
         <v>231</v>
       </c>
@@ -5489,7 +4947,7 @@
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" ht="14.25" spans="1:5">
+    <row r="15" spans="1:5" ht="14.25">
       <c r="A15" s="20" t="s">
         <v>233</v>
       </c>
@@ -5500,7 +4958,7 @@
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
     </row>
-    <row r="16" ht="14.25" spans="1:5">
+    <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="20" t="s">
         <v>235</v>
       </c>
@@ -5511,7 +4969,7 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" ht="14.25" spans="1:5">
+    <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="20" t="s">
         <v>237</v>
       </c>
@@ -5522,7 +4980,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" ht="14.25" spans="1:5">
+    <row r="18" spans="1:5" ht="14.25">
       <c r="A18" s="20" t="s">
         <v>239</v>
       </c>
@@ -5533,7 +4991,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" ht="14.25" spans="1:5">
+    <row r="19" spans="1:5" ht="14.25">
       <c r="A19" s="20" t="s">
         <v>241</v>
       </c>
@@ -5544,7 +5002,7 @@
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
     </row>
-    <row r="20" ht="14.25" spans="1:5">
+    <row r="20" spans="1:5" ht="14.25">
       <c r="A20" s="20" t="s">
         <v>243</v>
       </c>
@@ -5555,7 +5013,7 @@
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
     </row>
-    <row r="21" ht="14.25" spans="1:5">
+    <row r="21" spans="1:5" ht="14.25">
       <c r="A21" s="20" t="s">
         <v>245</v>
       </c>
@@ -5566,7 +5024,7 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
     </row>
-    <row r="22" ht="14.25" spans="1:5">
+    <row r="22" spans="1:5" ht="14.25">
       <c r="A22" s="20" t="s">
         <v>247</v>
       </c>
@@ -5577,7 +5035,7 @@
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
     </row>
-    <row r="23" ht="14.25" spans="1:5">
+    <row r="23" spans="1:5" ht="14.25">
       <c r="A23" s="20" t="s">
         <v>249</v>
       </c>
@@ -5588,7 +5046,7 @@
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
     </row>
-    <row r="24" ht="14.25" spans="1:5">
+    <row r="24" spans="1:5" ht="14.25">
       <c r="A24" s="20" t="s">
         <v>251</v>
       </c>
@@ -5599,7 +5057,7 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" ht="14.25" spans="1:5">
+    <row r="25" spans="1:5" ht="14.25">
       <c r="A25" s="20" t="s">
         <v>253</v>
       </c>
@@ -5610,7 +5068,7 @@
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
     </row>
-    <row r="26" ht="14.25" spans="1:5">
+    <row r="26" spans="1:5" ht="14.25">
       <c r="A26" s="20" t="s">
         <v>255</v>
       </c>
@@ -5621,7 +5079,7 @@
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" ht="14.25" spans="1:5">
+    <row r="27" spans="1:5" ht="14.25">
       <c r="A27" s="20" t="s">
         <v>257</v>
       </c>
@@ -5632,7 +5090,7 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" ht="14.25" spans="1:5">
+    <row r="28" spans="1:5" ht="14.25">
       <c r="A28" s="20" t="s">
         <v>259</v>
       </c>
@@ -5643,7 +5101,7 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" ht="14.25" spans="1:5">
+    <row r="29" spans="1:5" ht="14.25">
       <c r="A29" s="20" t="s">
         <v>261</v>
       </c>
@@ -5654,7 +5112,7 @@
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
     </row>
-    <row r="30" ht="14.25" spans="1:5">
+    <row r="30" spans="1:5" ht="14.25">
       <c r="A30" s="20" t="s">
         <v>263</v>
       </c>
@@ -5665,7 +5123,7 @@
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" ht="14.25" spans="1:5">
+    <row r="31" spans="1:5" ht="14.25">
       <c r="A31" s="20" t="s">
         <v>265</v>
       </c>
@@ -5676,7 +5134,7 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" ht="14.25" spans="1:5">
+    <row r="32" spans="1:5" ht="14.25">
       <c r="A32" s="20" t="s">
         <v>267</v>
       </c>
@@ -5687,7 +5145,7 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
     </row>
-    <row r="33" ht="14.25" spans="1:5">
+    <row r="33" spans="1:5" ht="14.25">
       <c r="A33" s="20" t="s">
         <v>269</v>
       </c>
@@ -5698,7 +5156,7 @@
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
     </row>
-    <row r="34" ht="14.25" spans="1:5">
+    <row r="34" spans="1:5" ht="14.25">
       <c r="A34" s="20" t="s">
         <v>271</v>
       </c>
@@ -5709,7 +5167,7 @@
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5">
       <c r="A35" s="23" t="s">
         <v>273</v>
       </c>
@@ -5717,7 +5175,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5">
       <c r="A36" s="23" t="s">
         <v>275</v>
       </c>
@@ -5725,7 +5183,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5">
       <c r="A37" s="23" t="s">
         <v>277</v>
       </c>
@@ -5733,7 +5191,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5">
       <c r="A38" s="23" t="s">
         <v>279</v>
       </c>
@@ -5741,7 +5199,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:5">
       <c r="A39" s="23" t="s">
         <v>281</v>
       </c>
@@ -5749,7 +5207,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:5">
       <c r="A40" s="23" t="s">
         <v>283</v>
       </c>
@@ -5757,7 +5215,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:5">
       <c r="A41" s="23" t="s">
         <v>285</v>
       </c>
@@ -5765,7 +5223,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:5">
       <c r="A42" s="23" t="s">
         <v>287</v>
       </c>
@@ -5773,7 +5231,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:5">
       <c r="A43" s="23" t="s">
         <v>289</v>
       </c>
@@ -5781,7 +5239,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:5">
       <c r="A44" s="23" t="s">
         <v>291</v>
       </c>
@@ -5789,7 +5247,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:5">
       <c r="A45" s="23" t="s">
         <v>293</v>
       </c>
@@ -5798,21 +5256,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
@@ -5823,7 +5280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:3">
+    <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="13" t="s">
         <v>86</v>
       </c>
@@ -5832,7 +5289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:3">
+    <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="13" t="s">
         <v>87</v>
       </c>
@@ -5841,7 +5298,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
+    <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="13" t="s">
         <v>89</v>
       </c>
@@ -5850,7 +5307,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="13" t="s">
         <v>91</v>
       </c>
@@ -5859,7 +5316,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:3">
+    <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="13" t="s">
         <v>92</v>
       </c>
@@ -5868,7 +5325,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:3">
+    <row r="7" spans="1:3" ht="14.25">
       <c r="A7" s="13" t="s">
         <v>93</v>
       </c>
@@ -5877,7 +5334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:3">
+    <row r="8" spans="1:3" ht="14.25">
       <c r="A8" s="13" t="s">
         <v>94</v>
       </c>
@@ -5886,7 +5343,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:3">
+    <row r="9" spans="1:3" ht="14.25">
       <c r="A9" s="13" t="s">
         <v>95</v>
       </c>
@@ -5895,7 +5352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:3">
+    <row r="10" spans="1:3" ht="14.25">
       <c r="A10" s="13" t="s">
         <v>96</v>
       </c>
@@ -5904,7 +5361,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:3">
+    <row r="11" spans="1:3" ht="14.25">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -5913,7 +5370,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3" ht="14.25">
       <c r="A12" s="13" t="s">
         <v>97</v>
       </c>
@@ -5922,7 +5379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:3">
+    <row r="13" spans="1:3" ht="14.25">
       <c r="A13" s="13" t="s">
         <v>98</v>
       </c>
@@ -5931,7 +5388,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:3">
+    <row r="14" spans="1:3" ht="14.25">
       <c r="A14" s="13" t="s">
         <v>99</v>
       </c>
@@ -5940,7 +5397,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:3">
+    <row r="15" spans="1:3" ht="14.25">
       <c r="A15" s="13" t="s">
         <v>100</v>
       </c>
@@ -5949,7 +5406,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:3">
+    <row r="16" spans="1:3" ht="14.25">
       <c r="A16" s="13" t="s">
         <v>101</v>
       </c>
@@ -5958,7 +5415,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:3">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="13" t="s">
         <v>102</v>
       </c>
@@ -5967,7 +5424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:3">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="13" t="s">
         <v>103</v>
       </c>
@@ -5976,7 +5433,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:3">
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="13" t="s">
         <v>104</v>
       </c>
@@ -5985,7 +5442,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:3">
+    <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="13" t="s">
         <v>105</v>
       </c>
@@ -5994,7 +5451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:3">
+    <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="13" t="s">
         <v>106</v>
       </c>
@@ -6003,7 +5460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:3">
+    <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="13" t="s">
         <v>107</v>
       </c>
@@ -6012,7 +5469,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:3">
+    <row r="23" spans="1:4" ht="14.25">
       <c r="A23" s="13" t="s">
         <v>108</v>
       </c>
@@ -6021,7 +5478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:3">
+    <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="13" t="s">
         <v>109</v>
       </c>
@@ -6030,7 +5487,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:3">
+    <row r="25" spans="1:4" ht="14.25">
       <c r="A25" s="13" t="s">
         <v>110</v>
       </c>
@@ -6039,7 +5496,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:3">
+    <row r="26" spans="1:4" ht="14.25">
       <c r="A26" s="13" t="s">
         <v>112</v>
       </c>
@@ -6048,7 +5505,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:3">
+    <row r="27" spans="1:4" ht="14.25">
       <c r="A27" s="13" t="s">
         <v>115</v>
       </c>
@@ -6057,7 +5514,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:3">
+    <row r="28" spans="1:4" ht="14.25">
       <c r="A28" s="13" t="s">
         <v>116</v>
       </c>
@@ -6066,7 +5523,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:3">
+    <row r="29" spans="1:4" ht="14.25">
       <c r="A29" s="13" t="s">
         <v>117</v>
       </c>
@@ -6075,7 +5532,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:3">
+    <row r="30" spans="1:4" ht="14.25">
       <c r="A30" s="13" t="s">
         <v>193</v>
       </c>
@@ -6084,7 +5541,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:4">
+    <row r="31" spans="1:4" ht="16.5">
       <c r="A31" s="15" t="s">
         <v>195</v>
       </c>
@@ -6094,7 +5551,7 @@
       </c>
       <c r="D31" s="18"/>
     </row>
-    <row r="32" ht="16.5" spans="1:4">
+    <row r="32" spans="1:4" ht="16.5">
       <c r="A32" s="15" t="s">
         <v>197</v>
       </c>
@@ -6104,7 +5561,7 @@
       </c>
       <c r="D32" s="18"/>
     </row>
-    <row r="33" ht="16.5" spans="1:4">
+    <row r="33" spans="1:4" ht="16.5">
       <c r="A33" s="15" t="s">
         <v>199</v>
       </c>
@@ -6114,7 +5571,7 @@
       </c>
       <c r="D33" s="18"/>
     </row>
-    <row r="34" ht="16.5" spans="1:4">
+    <row r="34" spans="1:4" ht="16.5">
       <c r="A34" s="16" t="s">
         <v>201</v>
       </c>
@@ -6124,7 +5581,7 @@
       </c>
       <c r="D34" s="18"/>
     </row>
-    <row r="35" ht="16.5" spans="1:4">
+    <row r="35" spans="1:4" ht="16.5">
       <c r="A35" s="16" t="s">
         <v>203</v>
       </c>
@@ -6134,7 +5591,7 @@
       </c>
       <c r="D35" s="18"/>
     </row>
-    <row r="36" ht="16.5" spans="1:4">
+    <row r="36" spans="1:4" ht="16.5">
       <c r="A36" s="16" t="s">
         <v>205</v>
       </c>
@@ -6144,7 +5601,7 @@
       </c>
       <c r="D36" s="18"/>
     </row>
-    <row r="37" ht="16.5" spans="1:4">
+    <row r="37" spans="1:4" ht="16.5">
       <c r="A37" s="16" t="s">
         <v>314</v>
       </c>
@@ -6154,7 +5611,7 @@
       </c>
       <c r="D37" s="18"/>
     </row>
-    <row r="38" ht="16.5" spans="1:4">
+    <row r="38" spans="1:4" ht="16.5">
       <c r="A38" s="16" t="s">
         <v>316</v>
       </c>
@@ -6164,7 +5621,7 @@
       </c>
       <c r="D38" s="18"/>
     </row>
-    <row r="39" ht="16.5" spans="1:4">
+    <row r="39" spans="1:4" ht="16.5">
       <c r="A39" s="16" t="s">
         <v>207</v>
       </c>
@@ -6174,7 +5631,7 @@
       </c>
       <c r="D39" s="18"/>
     </row>
-    <row r="40" ht="16.5" spans="1:4">
+    <row r="40" spans="1:4" ht="16.5">
       <c r="A40" s="16" t="s">
         <v>211</v>
       </c>
@@ -6184,7 +5641,7 @@
       </c>
       <c r="D40" s="18"/>
     </row>
-    <row r="41" ht="16.5" spans="1:4">
+    <row r="41" spans="1:4" ht="16.5">
       <c r="A41" s="16" t="s">
         <v>319</v>
       </c>
@@ -6194,7 +5651,7 @@
       </c>
       <c r="D41" s="18"/>
     </row>
-    <row r="42" ht="16.5" spans="1:4">
+    <row r="42" spans="1:4" ht="16.5">
       <c r="A42" s="16" t="s">
         <v>321</v>
       </c>
@@ -6204,7 +5661,7 @@
       </c>
       <c r="D42" s="18"/>
     </row>
-    <row r="43" ht="16.5" spans="1:4">
+    <row r="43" spans="1:4" ht="16.5">
       <c r="A43" s="16" t="s">
         <v>323</v>
       </c>
@@ -6214,7 +5671,7 @@
       </c>
       <c r="D43" s="18"/>
     </row>
-    <row r="44" ht="16.5" spans="1:4">
+    <row r="44" spans="1:4" ht="16.5">
       <c r="A44" s="16" t="s">
         <v>325</v>
       </c>
@@ -6225,23 +5682,22 @@
       <c r="D44" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6251,7 +5707,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="3" t="s">
         <v>217</v>
       </c>
@@ -6261,13 +5717,13 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="2" t="s">
         <v>219</v>
       </c>
@@ -6277,13 +5733,13 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="2" t="s">
         <v>221</v>
       </c>
@@ -6293,7 +5749,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" ht="14.25" spans="1:4">
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="2" t="s">
         <v>223</v>
       </c>
@@ -6303,7 +5759,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" ht="14.25" spans="1:4">
+    <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="2" t="s">
         <v>225</v>
       </c>
@@ -6313,7 +5769,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" ht="14.25" spans="1:4">
+    <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="4" t="s">
         <v>227</v>
       </c>
@@ -6323,7 +5779,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="2" t="s">
         <v>330</v>
       </c>
@@ -6333,7 +5789,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" ht="14.25" spans="1:4">
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="5" t="s">
         <v>332</v>
       </c>
@@ -6343,7 +5799,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" ht="14.25" spans="1:4">
+    <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="4" t="s">
         <v>333</v>
       </c>
@@ -6353,7 +5809,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" ht="14.25" spans="1:4">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="4" t="s">
         <v>243</v>
       </c>
@@ -6363,7 +5819,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" ht="14.25" spans="1:4">
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="4" t="s">
         <v>335</v>
       </c>
@@ -6373,7 +5829,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" ht="14.25" spans="1:4">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="2" t="s">
         <v>336</v>
       </c>
@@ -6383,7 +5839,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" ht="14.25" spans="1:4">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="4" t="s">
         <v>338</v>
       </c>
@@ -6393,7 +5849,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" ht="14.25" spans="1:4">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="2" t="s">
         <v>339</v>
       </c>
@@ -6403,7 +5859,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" ht="14.25" spans="1:4">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="2" t="s">
         <v>340</v>
       </c>
@@ -6413,7 +5869,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="14.25" spans="1:4">
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="2" t="s">
         <v>251</v>
       </c>
@@ -6423,7 +5879,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" ht="14.25" spans="1:4">
+    <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="2" t="s">
         <v>341</v>
       </c>
@@ -6433,7 +5889,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" ht="14.25" spans="1:4">
+    <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="2" t="s">
         <v>255</v>
       </c>
@@ -6443,7 +5899,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" ht="14.25" spans="1:4">
+    <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="2" t="s">
         <v>343</v>
       </c>
@@ -6453,7 +5909,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="14.25" spans="1:4">
+    <row r="23" spans="1:4" ht="14.25">
       <c r="A23" s="2" t="s">
         <v>344</v>
       </c>
@@ -6463,7 +5919,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="14.25" spans="1:4">
+    <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="2" t="s">
         <v>345</v>
       </c>
@@ -6473,7 +5929,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="14.25" spans="1:4">
+    <row r="25" spans="1:4" ht="14.25">
       <c r="A25" s="2" t="s">
         <v>346</v>
       </c>
@@ -6483,7 +5939,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="14.25" spans="1:4">
+    <row r="26" spans="1:4" ht="14.25">
       <c r="A26" s="2" t="s">
         <v>263</v>
       </c>
@@ -6493,7 +5949,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="14.25" spans="1:4">
+    <row r="27" spans="1:4" ht="14.25">
       <c r="A27" s="2" t="s">
         <v>347</v>
       </c>
@@ -6503,7 +5959,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="14.25" spans="1:4">
+    <row r="28" spans="1:4" ht="14.25">
       <c r="A28" s="2" t="s">
         <v>349</v>
       </c>
@@ -6513,7 +5969,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="14.25" spans="1:4">
+    <row r="29" spans="1:4" ht="14.25">
       <c r="A29" s="2" t="s">
         <v>350</v>
       </c>
@@ -6523,7 +5979,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="14.25" spans="1:4">
+    <row r="30" spans="1:4" ht="14.25">
       <c r="A30" s="2" t="s">
         <v>269</v>
       </c>
@@ -6533,7 +5989,7 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="14.25" spans="1:4">
+    <row r="31" spans="1:4" ht="14.25">
       <c r="A31" s="2" t="s">
         <v>352</v>
       </c>
@@ -6543,7 +5999,7 @@
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="14.25" spans="1:4">
+    <row r="32" spans="1:4" ht="14.25">
       <c r="A32" s="7" t="s">
         <v>354</v>
       </c>
@@ -6553,7 +6009,7 @@
       </c>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" ht="14.25" spans="1:3">
+    <row r="33" spans="1:3" ht="14.25">
       <c r="A33" s="7" t="s">
         <v>356</v>
       </c>
@@ -6561,7 +6017,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:3">
+    <row r="34" spans="1:3" ht="14.25">
       <c r="A34" s="7" t="s">
         <v>358</v>
       </c>
@@ -6569,7 +6025,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:3">
+    <row r="35" spans="1:3" ht="14.25">
       <c r="A35" s="7" t="s">
         <v>360</v>
       </c>
@@ -6577,7 +6033,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:3">
+    <row r="36" spans="1:3" ht="14.25">
       <c r="A36" s="7" t="s">
         <v>362</v>
       </c>
@@ -6593,7 +6049,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:3">
+    <row r="38" spans="1:3" ht="14.25">
       <c r="A38" s="7" t="s">
         <v>366</v>
       </c>
@@ -6601,7 +6057,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:3">
+    <row r="39" spans="1:3" ht="14.25">
       <c r="A39" s="7" t="s">
         <v>367</v>
       </c>
@@ -6617,7 +6073,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:3">
+    <row r="41" spans="1:3" ht="14.25">
       <c r="A41" s="7" t="s">
         <v>370</v>
       </c>
@@ -6625,7 +6081,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:3">
+    <row r="42" spans="1:3" ht="14.25">
       <c r="A42" s="7" t="s">
         <v>372</v>
       </c>
@@ -6633,7 +6089,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:3">
+    <row r="43" spans="1:3" ht="14.25">
       <c r="A43" s="7" t="s">
         <v>373</v>
       </c>
@@ -6642,7 +6098,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>